--- a/answer4.xlsx
+++ b/answer4.xlsx
@@ -387,7802 +387,7802 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>391.8461547133371</v>
+        <v>527.760673986491</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1239.506270747848</v>
+        <v>1013.790715787825</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>352.9968107034663</v>
+        <v>305.008787275879</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>1044.245885743698</v>
+        <v>1058.54571927968</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>342.7514536995939</v>
+        <v>382.2691721273142</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>408.2451357208385</v>
+        <v>610.280914876956</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>644.7916753924269</v>
+        <v>552.5101901272524</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>418.3176296889102</v>
+        <v>427.6783317566445</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>421.2942866373892</v>
+        <v>452.0421897437952</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>396.7191616221126</v>
+        <v>330.0223892686474</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>301.2265007917906</v>
+        <v>335.2556965938795</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>379.9878344264511</v>
+        <v>271.2627370771368</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>215.2176884989863</v>
+        <v>225.5359670936529</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>994.5369010231316</v>
+        <v>834.9385623665571</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>289.3423253635131</v>
+        <v>278.8561179287673</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>652.689643543813</v>
+        <v>617.807436761682</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>371.3762883963142</v>
+        <v>360.3524791909826</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1057.47311863972</v>
+        <v>918.2779344620808</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>359.0269198086082</v>
+        <v>457.3396116399447</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>330.994701990581</v>
+        <v>413.9101727035484</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>295.4875940445708</v>
+        <v>342.8267676151193</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>532.7351385692866</v>
+        <v>377.4364045762459</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>504.385926090274</v>
+        <v>416.2472141042836</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>858.8339263791922</v>
+        <v>932.5802980683867</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>349.8309541763826</v>
+        <v>365.8722946077728</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>410.6127292081619</v>
+        <v>375.4251633128956</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>419.2142176696053</v>
+        <v>464.1922254220826</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>109.441904057793</v>
+        <v>139.4328155732721</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>352.6467792650647</v>
+        <v>365.0216679811309</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>359.3195661385906</v>
+        <v>406.3383968656114</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>236.351956120736</v>
+        <v>243.1928023143758</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>279.4236224767746</v>
+        <v>277.5504811093609</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>263.8486451964218</v>
+        <v>209.2387789997519</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>185.452905327959</v>
+        <v>200.4412393358006</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>902.4138748190788</v>
+        <v>1013.457121142046</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>287.6850031477475</v>
+        <v>305.186999481664</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>403.8940347836719</v>
+        <v>492.2552786357881</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>157.6604195714932</v>
+        <v>151.8599171655332</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>2065.770521929329</v>
+        <v>1587.769536422659</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>389.3918835274854</v>
+        <v>362.0764800731586</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>429.0814160848126</v>
+        <v>520.1197385923728</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>731.2974167250936</v>
+        <v>818.6929139899221</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>370.9386073594153</v>
+        <v>380.4567266714395</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>413.7397366022747</v>
+        <v>474.446700993893</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>234.4006311610447</v>
+        <v>251.6760297405389</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>312.1410930567649</v>
+        <v>272.0469981879642</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>829.5187762900883</v>
+        <v>764.7573846618593</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>434.5617447571528</v>
+        <v>354.1382040621331</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>379.9889326357481</v>
+        <v>501.3665672463638</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>745.4601183819732</v>
+        <v>710.5990079913198</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>449.9188371326218</v>
+        <v>395.9938838266373</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>485.4947251817333</v>
+        <v>492.6499010697729</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>251.2359573940605</v>
+        <v>262.5732783070459</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>248.1906444867582</v>
+        <v>284.5366532683375</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>736.6291198392373</v>
+        <v>606.1175081597338</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>952.0657155095737</v>
+        <v>842.1073221038945</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>385.0008270645841</v>
+        <v>390.5924153361716</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>1470.748203305202</v>
+        <v>1122.792872775322</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>336.838482907519</v>
+        <v>366.5490260713764</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>288.552266791459</v>
+        <v>236.6991776538868</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>303.8280665150544</v>
+        <v>320.2390885640975</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>454.1947164427675</v>
+        <v>480.5659772470896</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>304.1868724831065</v>
+        <v>315.3643237906881</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>418.858944476854</v>
+        <v>446.1583610769716</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>445.502156662355</v>
+        <v>405.4210465429373</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>397.028624294279</v>
+        <v>369.3725344311372</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>477.7191918935318</v>
+        <v>517.236951091502</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>368.4978889012823</v>
+        <v>372.7861812184158</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>282.8186640458468</v>
+        <v>263.6896629549955</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>537.0988806027043</v>
+        <v>622.3656480317292</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>240.6868114382784</v>
+        <v>242.9070440173809</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>280.457564127652</v>
+        <v>254.0812424729251</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>468.1189200861319</v>
+        <v>543.54590896501</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>552.146470511404</v>
+        <v>587.0868225618541</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>274.112070851022</v>
+        <v>293.283662078547</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>251.1225167583376</v>
+        <v>232.671437959227</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>251.3462618601991</v>
+        <v>291.9372365387129</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>521.4137893456775</v>
+        <v>525.4313596300796</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>364.8164519030609</v>
+        <v>376.5104896511943</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>224.4885842608469</v>
+        <v>212.2130597668167</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>280.8050684048062</v>
+        <v>297.1144896111139</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>382.2705325607594</v>
+        <v>437.3612444612829</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>471.0203807445577</v>
+        <v>561.4198836772282</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>893.0796527143146</v>
+        <v>748.444588333493</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>439.3261941337723</v>
+        <v>418.0424097880955</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>836.7415915507918</v>
+        <v>829.2393335095763</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>347.7191245207827</v>
+        <v>345.9902953611154</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>246.563690473895</v>
+        <v>271.8538956206452</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>567.3849511287068</v>
+        <v>641.1927628682679</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>248.3012573775591</v>
+        <v>207.6555946866147</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>607.0692908455966</v>
+        <v>522.4966190510874</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>314.7786228900196</v>
+        <v>322.8654300868639</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>452.4696347599191</v>
+        <v>403.4924606254764</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>251.7664157673711</v>
+        <v>236.3721846242569</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>357.7259802244509</v>
+        <v>336.5542681453908</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>614.2886396092124</v>
+        <v>640.5788649181993</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>964.9218349209086</v>
+        <v>1315.162929036654</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>139.9845772759992</v>
+        <v>178.0073144692171</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>346.9291132052685</v>
+        <v>345.5520887197715</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>158.6805263258879</v>
+        <v>216.1885207886</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>793.7774318252877</v>
+        <v>746.3380136164652</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>265.4252131257787</v>
+        <v>308.192114597565</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>702.7495085558143</v>
+        <v>672.2235214912803</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>317.9485412622572</v>
+        <v>301.0905206385709</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>919.2966322330894</v>
+        <v>734.1275055109876</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>450.3149467501475</v>
+        <v>396.8418030419231</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>431.2376537962994</v>
+        <v>448.6307065815166</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>1032.861565828513</v>
+        <v>848.3182522926126</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>914.994698176869</v>
+        <v>869.7138507282912</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>349.9160592677356</v>
+        <v>336.6306484668524</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>489.5904214991101</v>
+        <v>510.1720738847101</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>261.8459202134649</v>
+        <v>261.1790859717907</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>269.9885511077034</v>
+        <v>241.1539693331405</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>327.6166414960506</v>
+        <v>315.7739264974052</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>238.8014629597794</v>
+        <v>278.2229021588578</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>244.0571226040421</v>
+        <v>238.4042843645884</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>318.3908296707968</v>
+        <v>287.6150525350277</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>351.6954586151793</v>
+        <v>347.011206219407</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>464.9947614924408</v>
+        <v>392.3333068559736</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>505.2839331037644</v>
+        <v>540.124308830478</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>498.003509537657</v>
+        <v>546.9122188051682</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>250.9848662455532</v>
+        <v>251.9702011884178</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>686.852764066391</v>
+        <v>677.3930553114529</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>1068.087847654999</v>
+        <v>1104.213545374755</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>314.0341715779598</v>
+        <v>326.4576169425288</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>678.5270831173765</v>
+        <v>667.9400930572418</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>326.7829755872132</v>
+        <v>321.1630914945614</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>490.4408453659572</v>
+        <v>408.3368233108067</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>790.3246904520787</v>
+        <v>964.2014634594397</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>339.6778347193743</v>
+        <v>337.2137042974999</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>892.0648607156351</v>
+        <v>982.8533737467982</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>701.3646844305144</v>
+        <v>575.9342047879239</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>472.063735054801</v>
+        <v>426.0746466203373</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>656.1666586854268</v>
+        <v>696.6882237920745</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>238.4907279808212</v>
+        <v>238.7449884229845</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>315.431174439647</v>
+        <v>309.6939768237482</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>378.587670987856</v>
+        <v>494.1860881116301</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>315.7877518430772</v>
+        <v>336.5002411625051</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>272.9678552091542</v>
+        <v>291.8824004730566</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>359.7234460494356</v>
+        <v>347.0678634315074</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>229.0162059541977</v>
+        <v>239.0830007293889</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>326.6693155626473</v>
+        <v>258.9850903407552</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>1085.433268599409</v>
+        <v>919.8997248447878</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>467.5922507230521</v>
+        <v>405.7902924413718</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>624.272874820908</v>
+        <v>669.7749918173317</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>1050.089028628649</v>
+        <v>1041.500605297604</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>426.631557673501</v>
+        <v>381.5906830813609</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>432.0438651810688</v>
+        <v>600.5457277528225</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>193.7138083771991</v>
+        <v>175.9648798633645</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>367.5703351604113</v>
+        <v>313.0319307356456</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>360.8025085318788</v>
+        <v>387.0707051194368</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>149.9853119130745</v>
+        <v>161.1938569687537</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>404.1611573058629</v>
+        <v>361.8188893648503</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>360.1341614414021</v>
+        <v>345.47900635358</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>738.0209283936359</v>
+        <v>789.5277287612602</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>221.8749596410962</v>
+        <v>225.6136615961385</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>393.9832623141597</v>
+        <v>388.7937459342455</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>233.11055642184</v>
+        <v>286.6666130018897</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>396.7629550102868</v>
+        <v>427.4051555352833</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>732.8178161413462</v>
+        <v>680.9585798156288</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>294.100838637069</v>
+        <v>273.8750863629968</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>338.8124582749842</v>
+        <v>362.2967955684821</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>685.8182372046346</v>
+        <v>744.6279286535114</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>888.3136373579773</v>
+        <v>826.1349878849011</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>722.2827237815965</v>
+        <v>800.1863531151115</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>665.3216338173976</v>
+        <v>652.6185418435201</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>569.8569244562517</v>
+        <v>573.8375178506599</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>323.4611141028499</v>
+        <v>264.0968543868771</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>541.8023136693755</v>
+        <v>571.565594761962</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>300.8815491339668</v>
+        <v>286.3868057538634</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>443.3807351438602</v>
+        <v>405.1969776292563</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>254.5919589972663</v>
+        <v>259.7294861055927</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>338.7317506676716</v>
+        <v>327.2900542974849</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>438.7775435818667</v>
+        <v>633.8560346392825</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>173.9521766157113</v>
+        <v>164.0771133549924</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>416.1379878998646</v>
+        <v>491.9300507197742</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>915.890804399397</v>
+        <v>845.8592760023017</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>395.4677986225852</v>
+        <v>434.8734020759367</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>283.4165201446708</v>
+        <v>225.786844584575</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>475.159232096388</v>
+        <v>569.3949287578824</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>560.846845608425</v>
+        <v>492.4367209124871</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>232.2683170813275</v>
+        <v>330.0291880423366</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>897.3563818957441</v>
+        <v>949.7634870587623</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>530.9824885002275</v>
+        <v>577.464348594871</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>426.4888942684781</v>
+        <v>680.1928435830717</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>377.5568219137731</v>
+        <v>367.6893436011828</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>509.7641918613423</v>
+        <v>405.3476494081146</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>692.7879867127754</v>
+        <v>476.8253033290846</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>284.0726042756089</v>
+        <v>327.6141264105719</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>289.4346542924858</v>
+        <v>306.0606958589836</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>546.2354019971323</v>
+        <v>564.7837995983401</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>474.0784619726899</v>
+        <v>577.7711285899276</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>295.1059475294335</v>
+        <v>250.1098657661763</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>410.9957976627343</v>
+        <v>536.3917353774256</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>802.4881164582201</v>
+        <v>624.9814082483489</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>612.4722040313831</v>
+        <v>787.6072537620893</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>371.6828790054184</v>
+        <v>367.1483689934055</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>981.132404309813</v>
+        <v>960.028020990679</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>244.6783514165507</v>
+        <v>218.814711204421</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>1202.529556031961</v>
+        <v>1004.557922591066</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>175.7814386123707</v>
+        <v>253.264408772502</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>247.2657280002869</v>
+        <v>307.9580527681546</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>297.3230960494066</v>
+        <v>297.7546503893632</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>362.246515502952</v>
+        <v>340.910709116582</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>539.3993515144861</v>
+        <v>448.6115757724451</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>430.9512601960737</v>
+        <v>390.6449876903795</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>991.5465673429904</v>
+        <v>1146.037557765804</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>613.6762589261403</v>
+        <v>564.8591304824266</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>346.7699179603073</v>
+        <v>312.2006534003775</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>642.5120271441911</v>
+        <v>666.9948298127684</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>368.6948343339147</v>
+        <v>454.3195218021571</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>225.7861624194621</v>
+        <v>277.6769433085217</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>525.5424915966709</v>
+        <v>493.9637920144888</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>634.7976725734876</v>
+        <v>539.6591127582195</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>412.8124025846556</v>
+        <v>368.3750748287062</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>394.0837441112724</v>
+        <v>381.316108039025</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>568.7088818774236</v>
+        <v>484.196708036662</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>412.8018237724294</v>
+        <v>391.9879747445008</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>598.2265197508376</v>
+        <v>467.5746679450642</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>244.9337086555756</v>
+        <v>242.7271190587424</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>944.6688805822196</v>
+        <v>797.465747764069</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>181.0985223500149</v>
+        <v>221.1292297128922</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>392.606663990154</v>
+        <v>411.7817087079297</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>354.0280606614331</v>
+        <v>401.2407281481957</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>1111.911506040527</v>
+        <v>1279.066450130699</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>211.5463595040232</v>
+        <v>257.3140805265243</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>507.5849023442648</v>
+        <v>483.6598171300249</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>481.7741815732624</v>
+        <v>511.3937238215894</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>302.2537678519903</v>
+        <v>399.7429203941308</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>381.4797171536219</v>
+        <v>325.9308516434533</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>364.3825306342085</v>
+        <v>376.3793550748975</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>303.4276569133864</v>
+        <v>305.0700020545801</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>384.5035976241791</v>
+        <v>463.2920261580445</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>226.8009149642573</v>
+        <v>205.4385040366221</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>261.6401376968266</v>
+        <v>308.3792398280768</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>745.3270807659054</v>
+        <v>727.0402921961786</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>434.8985329689128</v>
+        <v>447.1001621480593</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>400.5561363423983</v>
+        <v>459.9555930041199</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>692.0277966770524</v>
+        <v>657.2108503865032</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>360.404333416918</v>
+        <v>384.3780435819455</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>1042.560156031619</v>
+        <v>1130.625048662023</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>293.1943772363036</v>
+        <v>285.16376172716</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>448.9379521616638</v>
+        <v>561.6853708185668</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>397.4651985271908</v>
+        <v>512.3667947044775</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>318.4202846108373</v>
+        <v>333.6794732222255</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>231.8645919602069</v>
+        <v>174.1077996911048</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>571.6997424455387</v>
+        <v>563.4646782733541</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>884.1072939645638</v>
+        <v>757.8935332486502</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>579.935307245873</v>
+        <v>615.9021560879888</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>186.8722863892382</v>
+        <v>197.5275420708671</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>272.7155854354185</v>
+        <v>310.9012598105201</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>335.9714720389898</v>
+        <v>339.0325954118949</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>1167.916337995994</v>
+        <v>925.8406105071736</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>350.5009637458263</v>
+        <v>327.8684235204556</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>355.8721697147218</v>
+        <v>358.3038276374866</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>511.5032168491292</v>
+        <v>518.6414145940067</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>440.5365098104518</v>
+        <v>374.5734515215074</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>455.6304917436662</v>
+        <v>439.0361182388417</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>393.0110693820155</v>
+        <v>396.2267912618279</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>325.6845229535944</v>
+        <v>404.8561001675059</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>485.0562548057426</v>
+        <v>498.6264859079159</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>698.6518949521824</v>
+        <v>611.8235191021168</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>360.7931091262953</v>
+        <v>575.5712476028053</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>343.8214598586403</v>
+        <v>297.5709583906582</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>886.2593472779618</v>
+        <v>842.4160082310894</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>1506.377102418311</v>
+        <v>1252.059880781065</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>254.435227111407</v>
+        <v>213.6027533513373</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>275.2218028605361</v>
+        <v>258.8160400070828</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>274.9626462512908</v>
+        <v>273.6735218029082</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>207.8138301587733</v>
+        <v>188.208880051347</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>291.4925473576359</v>
+        <v>322.1951039098492</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>551.9163195112425</v>
+        <v>497.613869514621</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>768.7759597046</v>
+        <v>886.9620019167124</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>230.4966486918947</v>
+        <v>253.5393819521071</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>247.5640796431632</v>
+        <v>277.3821365855356</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>560.1426564773404</v>
+        <v>556.2359625461642</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>233.9954729849374</v>
+        <v>239.1080609951349</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>327.6599837074548</v>
+        <v>296.4457042423102</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>471.7341395521324</v>
+        <v>499.2902449289156</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>919.1635642681399</v>
+        <v>848.6800305555868</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>318.5627037637474</v>
+        <v>291.2694668827132</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>221.139765283858</v>
+        <v>254.9366228347055</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>347.9000036608452</v>
+        <v>312.9180659969731</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>1011.72794374938</v>
+        <v>806.9771769580733</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>311.7664587641304</v>
+        <v>360.0021528283723</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>321.9633394439991</v>
+        <v>315.7579417456035</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>325.6817400764953</v>
+        <v>319.0627899226335</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>1093.96736879</v>
+        <v>1450.707161573367</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>388.6236625595229</v>
+        <v>412.709016161366</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>384.0985456598805</v>
+        <v>372.5216369467159</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>395.1038114755311</v>
+        <v>389.8434832775189</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>395.9585894224841</v>
+        <v>420.461162225158</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>442.3368508772583</v>
+        <v>377.1618797788024</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>182.7621323235849</v>
+        <v>173.0392862426131</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>270.3844557627005</v>
+        <v>259.3185435071231</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>301.5287709859369</v>
+        <v>301.783332587049</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>844.982900893477</v>
+        <v>1001.018590565368</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>429.8566482097049</v>
+        <v>382.0283687238436</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>312.4104994604275</v>
+        <v>433.9543458287047</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>396.0681821131054</v>
+        <v>332.3360563543674</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>251.8400419075827</v>
+        <v>278.877841205801</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>281.9502383000708</v>
+        <v>223.8055966403565</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>241.4876567405324</v>
+        <v>234.0488739321293</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>364.9955137457361</v>
+        <v>329.4194633371458</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>324.0274601097116</v>
+        <v>306.4083639170983</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>907.376906609739</v>
+        <v>832.2172894575446</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>267.0728011006939</v>
+        <v>307.5379125031859</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>307.3206642375812</v>
+        <v>259.0266810265961</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>408.1540381251164</v>
+        <v>361.4067622273744</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>618.677402070534</v>
+        <v>479.5899222203997</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>154.5706631682466</v>
+        <v>156.1663754270269</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>587.8389269259519</v>
+        <v>642.707217341752</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>376.7711717350124</v>
+        <v>311.6861728940559</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>314.3178307030772</v>
+        <v>335.2682184719822</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>541.8304340189972</v>
+        <v>563.2177458739542</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>265.311943656021</v>
+        <v>290.1742560242656</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>233.8637211679699</v>
+        <v>287.2492110995577</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>843.9848377902937</v>
+        <v>874.0239704683278</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>365.2374876940879</v>
+        <v>421.2900074873393</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>206.9264915088054</v>
+        <v>177.7809923448416</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>240.0127217546481</v>
+        <v>263.5282435006591</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>520.1165752038146</v>
+        <v>647.829824848017</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>614.3355301063908</v>
+        <v>531.4967881269278</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>637.4913470761535</v>
+        <v>698.8419626365408</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>397.5728397362147</v>
+        <v>416.5125793521511</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>278.6893271744457</v>
+        <v>224.1913554148246</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>454.658170896055</v>
+        <v>456.0658741698582</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>1128.351443361202</v>
+        <v>1033.216651937686</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>614.8320681974369</v>
+        <v>622.9207742617997</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>824.7607025411068</v>
+        <v>1033.351515596493</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>319.3842207061846</v>
+        <v>401.5047080824808</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>280.0953826022155</v>
+        <v>272.6942106934131</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>593.8771086854307</v>
+        <v>558.7449363559697</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>422.2597778948727</v>
+        <v>354.1107302331889</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>223.6934700118445</v>
+        <v>232.4021302777242</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>424.2636382375906</v>
+        <v>433.4561338358815</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>624.0567208229032</v>
+        <v>834.0385507221654</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>321.0523769114015</v>
+        <v>307.7491312607456</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>282.3794246440393</v>
+        <v>261.1252781975764</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>324.0473329188213</v>
+        <v>349.3537030765207</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>468.6124792581249</v>
+        <v>409.7486746428183</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>292.9726284751118</v>
+        <v>444.2465918734678</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>969.4736731376943</v>
+        <v>875.2355561879576</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>384.0522661460652</v>
+        <v>326.2148665706343</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>278.1895316743145</v>
+        <v>317.5396704979852</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>554.9657065138521</v>
+        <v>566.0216489173512</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>403.0098361347494</v>
+        <v>375.4925252411211</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>462.7309890217727</v>
+        <v>624.3970597085577</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>1256.838581926008</v>
+        <v>1287.303217213337</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>214.3719621041296</v>
+        <v>207.7628408101007</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>264.5207404725952</v>
+        <v>285.984305566914</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>244.0010948194737</v>
+        <v>363.7191193542004</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>241.916260338026</v>
+        <v>212.3299610683064</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>1388.934820029456</v>
+        <v>1422.849476855971</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>859.4393947415195</v>
+        <v>920.004534268337</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>185.7746088296135</v>
+        <v>339.3192824305958</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>547.5417426646686</v>
+        <v>531.8141262834841</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>326.7389543338384</v>
+        <v>266.9916687685673</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>397.6683626927784</v>
+        <v>339.9713801725342</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>144.989742608471</v>
+        <v>222.9248173616713</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>361.3278042072986</v>
+        <v>371.7645912694346</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>258.7612159661094</v>
+        <v>274.8618001067575</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>325.5326918385576</v>
+        <v>392.348598654595</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>962.4599330400188</v>
+        <v>865.5209296687102</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>378.0530082572879</v>
+        <v>352.4161922023589</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>342.7940625960743</v>
+        <v>357.5340170147799</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>271.2368170281276</v>
+        <v>295.0443219075453</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>238.333709001138</v>
+        <v>283.6053590698271</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>944.7098973528604</v>
+        <v>739.3976209946622</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>285.5793675243212</v>
+        <v>243.0048029762436</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>381.1316718142434</v>
+        <v>297.7883360187292</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>263.8284550671049</v>
+        <v>290.429173822985</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>218.7338467430727</v>
+        <v>268.0576296504246</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>232.9814916331374</v>
+        <v>236.9079249351485</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>314.4105900222057</v>
+        <v>328.9381725589556</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>218.995848440808</v>
+        <v>209.6538622556052</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>220.9157928425761</v>
+        <v>350.2487636522428</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>361.6735813255389</v>
+        <v>308.0593868947898</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>336.68833083201</v>
+        <v>348.4442014874664</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>1161.210956397854</v>
+        <v>1016.320575027018</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>388.6531485905916</v>
+        <v>356.5467217948402</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>441.2722733235416</v>
+        <v>440.7196805848217</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>395.269692713654</v>
+        <v>436.3856485813447</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>1206.522980039062</v>
+        <v>1071.383805174548</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>303.3517707724777</v>
+        <v>279.9081276327321</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>184.3051486942017</v>
+        <v>238.0594687407754</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>679.1687589889929</v>
+        <v>688.5928366825234</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>636.7191907721616</v>
+        <v>658.2303145027793</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>620.5106569687799</v>
+        <v>523.5889785268804</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>454.6675182356667</v>
+        <v>448.2727904420665</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>638.906888366948</v>
+        <v>541.3730711834322</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>628.1771629643523</v>
+        <v>721.1863198983789</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>775.2432935041423</v>
+        <v>864.1914929727841</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>293.426264672687</v>
+        <v>288.7282508530911</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>388.1976226452478</v>
+        <v>424.0621748835179</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>440.7479300905791</v>
+        <v>405.050521031413</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>596.4477341834154</v>
+        <v>710.9694672452293</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>332.4311162378714</v>
+        <v>328.920930811606</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>568.9075246121505</v>
+        <v>560.4639554121965</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>305.3312608286117</v>
+        <v>292.5622151172146</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>305.240065050958</v>
+        <v>267.9807355509824</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>609.3357528649678</v>
+        <v>414.9707328798206</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>275.9638948686561</v>
+        <v>243.282461125361</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>799.1311228811322</v>
+        <v>644.6484624749297</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>275.5571900293341</v>
+        <v>305.9615198386784</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>937.2718606944072</v>
+        <v>719.5122730418196</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>237.1109212754309</v>
+        <v>235.0882733581628</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>461.3942204823583</v>
+        <v>616.2804872575925</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>918.5428760302457</v>
+        <v>738.3952132821923</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>324.7746587301826</v>
+        <v>322.280202519728</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>1005.358395300881</v>
+        <v>1065.174723933066</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>506.9608786617352</v>
+        <v>531.6218623122793</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>906.6495463292694</v>
+        <v>932.219170148493</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>523.323378704636</v>
+        <v>453.2566872960836</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>592.0879836389087</v>
+        <v>725.933305930345</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>680.036409738878</v>
+        <v>662.3124385254488</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>313.4482432334003</v>
+        <v>345.2431462363257</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>1192.862023894221</v>
+        <v>998.4607330527837</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>286.5231914909737</v>
+        <v>306.6355690835255</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>277.1847895015064</v>
+        <v>307.6788849234181</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>342.3494066194673</v>
+        <v>410.0948174621493</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>1066.470102186054</v>
+        <v>826.9141244809898</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>270.7975711224283</v>
+        <v>261.5611793592539</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>371.1580970573177</v>
+        <v>343.3152250380303</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>890.658596504818</v>
+        <v>883.5171541535806</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>325.9260316453276</v>
+        <v>338.7997072923385</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>399.2984567287394</v>
+        <v>410.2555893308111</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>273.7512451493829</v>
+        <v>261.8720867770678</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>520.9643688190432</v>
+        <v>492.7733507504407</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>695.57853931446</v>
+        <v>617.5470496941706</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>340.9459158493905</v>
+        <v>358.3318769099542</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>1005.139049615938</v>
+        <v>622.6293886605689</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>441.8442809156307</v>
+        <v>412.6456029109009</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>316.1260697195121</v>
+        <v>303.9427860196359</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>878.1758436298678</v>
+        <v>934.1325013011668</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>288.242506520077</v>
+        <v>317.7364976814379</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>226.2332378399799</v>
+        <v>208.6124037633713</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>110.0842318210117</v>
+        <v>116.53283493551</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>503.09940564331</v>
+        <v>509.6764541747369</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>320.2316515158485</v>
+        <v>311.9022047756995</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>315.5147012627331</v>
+        <v>344.393187881273</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>689.0732349885225</v>
+        <v>671.5126525813229</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>278.9528011859713</v>
+        <v>259.0535945356895</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>357.6508155748294</v>
+        <v>336.3916763368161</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>239.324071596868</v>
+        <v>362.5945064329771</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>359.9825168790912</v>
+        <v>422.3337731584399</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>669.8782499441484</v>
+        <v>547.2775238090454</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>340.8682113845023</v>
+        <v>387.5963705436129</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>349.0014412211451</v>
+        <v>369.2609192652187</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>346.6888676161336</v>
+        <v>347.4072090621084</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>352.0603469150711</v>
+        <v>419.3860633827994</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>263.8325147289585</v>
+        <v>224.5156353456198</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>242.2240228955381</v>
+        <v>274.2271721132386</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>477.8558338755234</v>
+        <v>655.6172756554971</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>602.9496104077298</v>
+        <v>582.3526842905353</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>232.7540242818694</v>
+        <v>291.9687619983537</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>346.9929462978273</v>
+        <v>302.9447905955541</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>211.9717809943991</v>
+        <v>187.0896331463089</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>283.8696132479197</v>
+        <v>245.519043325878</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>878.2709693931919</v>
+        <v>791.9087110840131</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>215.3590556590337</v>
+        <v>232.6764364405373</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>691.3223857031422</v>
+        <v>504.0691237256972</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>402.5771084030118</v>
+        <v>449.5476871169003</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>415.3959094798614</v>
+        <v>563.0500244215976</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>298.2103176508892</v>
+        <v>289.8730653853501</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>469.970270430955</v>
+        <v>469.9791118453169</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>237.8738065865773</v>
+        <v>256.1054530262459</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>224.579773847363</v>
+        <v>237.7853837689894</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>271.3391153813296</v>
+        <v>271.9969257254596</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>449.8768046965656</v>
+        <v>465.7607683546814</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>401.3558782937823</v>
+        <v>338.1330723967919</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>1017.776904883841</v>
+        <v>904.9975598388904</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>293.3860073708254</v>
+        <v>315.3214288546846</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>187.5250814465361</v>
+        <v>212.0260993470237</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>358.8284610101076</v>
+        <v>445.5045592293454</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>417.9723687539379</v>
+        <v>415.6852704833704</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>688.7402164322426</v>
+        <v>543.8655914530726</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>816.3119548943832</v>
+        <v>593.2936223907371</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>116.3315881366559</v>
+        <v>162.7915760135959</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>528.2208661925609</v>
+        <v>541.2523612273</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>645.9654881440731</v>
+        <v>545.8606466490733</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>425.7195916756797</v>
+        <v>388.326911253476</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>431.5870866697908</v>
+        <v>478.592846046956</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>168.8002842287351</v>
+        <v>148.4615807027294</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>491.0979460525482</v>
+        <v>481.9371246552201</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>315.309201790208</v>
+        <v>308.4466832504324</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>487.9235486979907</v>
+        <v>401.8615841839094</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>1094.059549901524</v>
+        <v>849.6918350547807</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>722.2075234691198</v>
+        <v>635.1578147302686</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>242.5181816769339</v>
+        <v>266.1633128274242</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>823.3673716117306</v>
+        <v>851.1119129058401</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>475.3445279819715</v>
+        <v>484.5772775015802</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>414.4227829499068</v>
+        <v>413.3423958582982</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>250.4140620849913</v>
+        <v>203.3057073371967</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>874.1149863872229</v>
+        <v>941.659309869949</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>743.4181863550017</v>
+        <v>673.79136931709</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>665.2342752469282</v>
+        <v>761.6394175811756</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>359.9689856155819</v>
+        <v>423.9337709334165</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>488.2596694103486</v>
+        <v>446.7636116511001</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>417.8468062976075</v>
+        <v>379.2938267296779</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>279.8873506790545</v>
+        <v>295.0130058010479</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>217.5747856884078</v>
+        <v>214.9741349661098</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>414.459206311881</v>
+        <v>407.2378741484321</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>199.0845162882541</v>
+        <v>195.0411154299645</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>261.8424420057967</v>
+        <v>258.1769616369094</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>311.5681835094842</v>
+        <v>316.1199450666269</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>662.7243429823035</v>
+        <v>771.149880927706</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>135.3948022038422</v>
+        <v>166.3942439010964</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>421.8529204835079</v>
+        <v>352.6722865932408</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>370.1184593132563</v>
+        <v>443.32814019722</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>263.494526534325</v>
+        <v>257.2825461789137</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>1232.70717995207</v>
+        <v>977.3174903104546</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>441.8636310565583</v>
+        <v>317.2505098180786</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>533.961220169243</v>
+        <v>442.5929196581183</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>340.9502210750986</v>
+        <v>320.1489226129876</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>264.9443353857549</v>
+        <v>269.5865770405177</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>285.9695412864107</v>
+        <v>346.5362297863221</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>562.695466070922</v>
+        <v>565.8050641796634</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>406.2237610773509</v>
+        <v>386.185193876142</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>336.1755587211274</v>
+        <v>277.0687583553526</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>327.3223302817371</v>
+        <v>323.364979154605</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>460.7128567621255</v>
+        <v>465.5358139046551</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>418.1748947324702</v>
+        <v>406.5740120820553</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>429.6195212742852</v>
+        <v>395.4388558543386</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>161.3038657058645</v>
+        <v>167.1473315733938</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>615.0978500251098</v>
+        <v>748.6980375132895</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>313.1377253937132</v>
+        <v>307.582128438117</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>284.8612414800535</v>
+        <v>234.527122101129</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>392.7867025133813</v>
+        <v>489.7032507030314</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>781.5078429629178</v>
+        <v>644.4965422072547</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>206.6366378627631</v>
+        <v>219.5747334208436</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>279.9905905441732</v>
+        <v>265.3076188315632</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>368.5108704656934</v>
+        <v>333.5683624498257</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>528.283038454264</v>
+        <v>581.2753191854595</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>369.011164343776</v>
+        <v>400.6486489323531</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>278.2618087484681</v>
+        <v>284.3651656828176</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>906.5522453421567</v>
+        <v>840.3260106617669</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>348.4649542253975</v>
+        <v>474.8338579449498</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>1174.745843802545</v>
+        <v>1027.753918616022</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>407.5775621161363</v>
+        <v>437.5977853527887</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>390.9885692933785</v>
+        <v>412.8350778366685</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>339.1439956094734</v>
+        <v>312.3705612355956</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>391.1164582593827</v>
+        <v>407.244048136614</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>204.7168302683385</v>
+        <v>195.3098619541655</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>420.653899314299</v>
+        <v>435.3277718883082</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>399.137252325949</v>
+        <v>317.4682418990841</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>311.0233629373752</v>
+        <v>290.868765646514</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>280.7304555767751</v>
+        <v>285.2718777762869</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>288.2730903619528</v>
+        <v>264.9908505792536</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>443.4724486516319</v>
+        <v>491.154470214336</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>876.0724949265199</v>
+        <v>895.7587936201621</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>280.506416153344</v>
+        <v>235.8878617344832</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>213.4684316576563</v>
+        <v>248.7942766601377</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>1151.495880921869</v>
+        <v>1179.076274237839</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>260.852214880175</v>
+        <v>278.0669904036229</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>147.0156080231503</v>
+        <v>161.5175252155086</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>568.5468516215151</v>
+        <v>527.7182529647677</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>484.0987910441356</v>
+        <v>466.7520623292248</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>889.9256549839706</v>
+        <v>1094.770786065262</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>637.0448192124909</v>
+        <v>581.3731244372215</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>878.2357849490837</v>
+        <v>891.2066892216432</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>285.3234048773641</v>
+        <v>256.1698170655096</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>227.4921826419868</v>
+        <v>290.3662162838707</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>311.2359516853627</v>
+        <v>336.5477357458247</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>1337.365871869313</v>
+        <v>1095.407792025564</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>631.5069914795514</v>
+        <v>735.7480670239061</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>789.9329435898238</v>
+        <v>1264.078094588924</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>220.5007060165625</v>
+        <v>226.2635447683684</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>383.1815095045287</v>
+        <v>396.7576923352165</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>276.2986513523048</v>
+        <v>254.9260908429343</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>559.9284580008606</v>
+        <v>426.7143604981861</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>310.7643393222274</v>
+        <v>324.1759808978834</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>236.2041375014527</v>
+        <v>260.4781587976527</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>246.0499881384882</v>
+        <v>234.6647966495046</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>199.0914507191113</v>
+        <v>191.0381423924771</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>1137.343427979439</v>
+        <v>1067.333110495485</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>384.7817579690426</v>
+        <v>364.8521217667483</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>430.1239609989146</v>
+        <v>390.3761280018994</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>288.223401044174</v>
+        <v>302.1414747974814</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>481.5873998747808</v>
+        <v>525.8968228785417</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>195.4984473889682</v>
+        <v>213.8203727210595</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>269.3145984624836</v>
+        <v>256.9772966470626</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>432.434523564165</v>
+        <v>454.6182773459287</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>698.2324299755365</v>
+        <v>582.258813535493</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>303.8890899282067</v>
+        <v>341.9943181340018</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>308.7693454786611</v>
+        <v>323.5925449455774</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>279.5485646001358</v>
+        <v>307.8591422701168</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>326.5163360218465</v>
+        <v>262.623757184778</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>365.280727099213</v>
+        <v>363.3348068606882</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>366.9885319567646</v>
+        <v>374.2522656503734</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>375.5985742010866</v>
+        <v>470.5221134030791</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>666.8701439939083</v>
+        <v>618.1476553924724</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>417.1377659447356</v>
+        <v>409.7330479900933</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>528.1304761287406</v>
+        <v>522.6495740890809</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>255.8143775185123</v>
+        <v>237.4528156648171</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>486.8917601185269</v>
+        <v>519.4829084397451</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>142.0224216121625</v>
+        <v>171.496967438487</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>396.6585990876081</v>
+        <v>409.0169534508734</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>422.0844140405581</v>
+        <v>490.2800349410395</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>707.1532079396626</v>
+        <v>706.072710598668</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>545.2788389069882</v>
+        <v>528.5958514924126</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>225.6041585397394</v>
+        <v>214.048613549459</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>1034.257570054569</v>
+        <v>1006.798019009192</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>580.9474701227952</v>
+        <v>665.7800382667702</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>276.4893235649315</v>
+        <v>285.9545451653124</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>292.6276316573854</v>
+        <v>293.9661594314305</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>243.0660213124355</v>
+        <v>278.9152815020593</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>272.7095792782511</v>
+        <v>254.6931266659379</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>204.2421379880068</v>
+        <v>215.8914323586631</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>367.7129418512407</v>
+        <v>364.1150264049698</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>611.3258788977649</v>
+        <v>524.0302726654692</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>330.6199371471336</v>
+        <v>317.6724205666598</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>387.2819683301092</v>
+        <v>353.6633006034431</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>403.2878350194731</v>
+        <v>385.7246674311312</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>722.6465189552346</v>
+        <v>653.7706082973669</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>420.4793507688648</v>
+        <v>491.1840807085497</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>653.8769338294908</v>
+        <v>528.5321298185488</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>307.5435440507131</v>
+        <v>304.8655046193433</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>367.3305156209099</v>
+        <v>496.4139440253365</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>294.0022159225056</v>
+        <v>293.7669314643545</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>360.5239753599246</v>
+        <v>330.6335211704538</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>479.1547286002471</v>
+        <v>513.6368157239755</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>500.825804723276</v>
+        <v>506.396481390565</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>260.5094155136753</v>
+        <v>294.4167163266192</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>235.7332115159045</v>
+        <v>279.0672398725429</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>306.1496595943265</v>
+        <v>303.4234165943651</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>733.1122616234967</v>
+        <v>634.6251623086008</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>276.7234484483244</v>
+        <v>263.896627779294</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>344.1168210428888</v>
+        <v>319.491196691815</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>434.3976275593932</v>
+        <v>489.5619807904228</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>241.9969270371655</v>
+        <v>233.9208938703218</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>573.4639968026396</v>
+        <v>570.6244786731385</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>249.0722402581056</v>
+        <v>266.1074240367115</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>1680.300519891131</v>
+        <v>1739.363833741923</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>534.3083808829281</v>
+        <v>533.0271150197377</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>276.8164456652995</v>
+        <v>298.6031054623548</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>327.6069709367791</v>
+        <v>316.8824554126502</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>234.8423430398568</v>
+        <v>261.9518356314233</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>333.7671419402429</v>
+        <v>389.605202880605</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>681.8308650339759</v>
+        <v>612.3804589394372</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>275.3750902302429</v>
+        <v>271.8688392798712</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>417.8276698673048</v>
+        <v>432.3558453051594</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>278.9009549238695</v>
+        <v>250.0019692554106</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>76.05046429544343</v>
+        <v>75.54191945800805</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>286.9007966412319</v>
+        <v>285.2279221946836</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>360.5932173055394</v>
+        <v>405.0282178508125</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>432.5705913336863</v>
+        <v>440.3866430812071</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>451.8347748644636</v>
+        <v>431.4255245005263</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>619.8580166035434</v>
+        <v>585.2684704653892</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>325.878392683959</v>
+        <v>392.507018008012</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>435.8010936673167</v>
+        <v>407.6895288521821</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>293.5298002327758</v>
+        <v>307.8384242989644</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>711.3358622716122</v>
+        <v>544.3794156878445</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>373.1651535554374</v>
+        <v>416.4792410096682</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>631.8932906723207</v>
+        <v>683.3576485056632</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>334.8945330851608</v>
+        <v>275.9175784212743</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>113.8906852898579</v>
+        <v>154.8947564473766</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>244.743831451561</v>
+        <v>273.9794126105148</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>914.0212970086735</v>
+        <v>744.2055051601659</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>240.0665809310856</v>
+        <v>251.6459482718773</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>297.2301910991604</v>
+        <v>299.6584530017811</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>235.4687743181296</v>
+        <v>298.3160390530379</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>330.1605688488821</v>
+        <v>380.7397490910911</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>261.5071854880086</v>
+        <v>280.3426164797735</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>293.7070916997962</v>
+        <v>250.4424651114344</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>369.4797667761504</v>
+        <v>351.8287843907458</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>350.5548999341347</v>
+        <v>328.9572255766095</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>318.4287289014945</v>
+        <v>348.8454438324626</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>647.7183116650762</v>
+        <v>671.485813720466</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>631.8211160550971</v>
+        <v>623.384566120931</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>303.7043930827351</v>
+        <v>317.0031666861334</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>425.1850669223099</v>
+        <v>337.8497413997297</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>261.1483008560019</v>
+        <v>276.9998931073476</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>248.555198783374</v>
+        <v>269.7919725558197</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>647.2100714104013</v>
+        <v>807.8053892629849</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>292.0368603165582</v>
+        <v>311.3932594811493</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>1187.990725606489</v>
+        <v>1174.30897681171</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>373.8322388094405</v>
+        <v>364.7940944039926</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>201.8021383155521</v>
+        <v>199.8345851333601</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>295.7333050585122</v>
+        <v>298.5195081119886</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>555.844621827658</v>
+        <v>615.9004575663639</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>942.4697101001005</v>
+        <v>937.6969468023398</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>384.4498804841713</v>
+        <v>412.5704689215434</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>366.2546544563154</v>
+        <v>393.5550492449991</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>261.8022442651975</v>
+        <v>267.5662139156222</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>389.884792580139</v>
+        <v>405.4790397735273</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>717.3784569377272</v>
+        <v>627.0979858884679</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>451.4343884235891</v>
+        <v>397.2792612940628</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>412.4828109320308</v>
+        <v>404.4173865226792</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>367.044173451171</v>
+        <v>308.9808580822652</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>151.1781179928655</v>
+        <v>160.1670379273153</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>214.7661847378606</v>
+        <v>242.768522725985</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>411.2487406165212</v>
+        <v>509.0201582846751</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>463.5572820038834</v>
+        <v>441.9610019070637</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>317.2697258265027</v>
+        <v>354.6019896069017</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>627.498457534161</v>
+        <v>667.1774549502729</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>532.9964005914626</v>
+        <v>527.474273040741</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>380.7582921489204</v>
+        <v>383.7533514573077</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>233.0937327232799</v>
+        <v>247.7762803359794</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>485.944106140245</v>
+        <v>417.9130120030836</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>240.8982695017778</v>
+        <v>245.0549197649361</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>499.1707310544141</v>
+        <v>428.8330052128975</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>541.3237858588012</v>
+        <v>527.2451288502135</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>1192.590645903609</v>
+        <v>1510.343110516177</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>251.0997800170811</v>
+        <v>256.5279070318801</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>431.4833154196322</v>
+        <v>433.8409874088948</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>242.1179499551613</v>
+        <v>317.3592298091531</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>420.8288179367134</v>
+        <v>382.1095975392701</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>425.5854279559248</v>
+        <v>419.9067335463915</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>822.4211779289218</v>
+        <v>722.6152304587813</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>405.5628765343468</v>
+        <v>367.1830053296615</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>271.7155256557994</v>
+        <v>268.8259985904045</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>609.8155718679549</v>
+        <v>560.5926355077039</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>472.4772167156941</v>
+        <v>448.0645666054315</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>480.2041040335499</v>
+        <v>482.8644159872929</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>319.0571558311097</v>
+        <v>338.5496648135642</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>952.8148875821671</v>
+        <v>1027.129928002728</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>555.2262081782682</v>
+        <v>492.7967131644348</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>320.2115353702699</v>
+        <v>354.5702113735803</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>916.1485568700654</v>
+        <v>635.1575872552902</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>555.5849582246351</v>
+        <v>531.6809276224153</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>1374.32623884002</v>
+        <v>1288.30652815512</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>518.0809045518675</v>
+        <v>539.0833883746463</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>489.9628153281367</v>
+        <v>596.778459926696</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>569.5135593033065</v>
+        <v>573.3952793604636</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>402.9574154285765</v>
+        <v>443.3082859081744</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>1047.447707937292</v>
+        <v>1112.695429326796</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>579.9532956545012</v>
+        <v>410.6203102083944</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>355.8270327521746</v>
+        <v>404.1580052113518</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>301.4478061390828</v>
+        <v>324.7985002884412</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>401.9478313922796</v>
+        <v>395.2725731937309</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>254.0695782927908</v>
+        <v>261.4371891824219</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>475.6368515862117</v>
+        <v>566.0178615539209</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>579.219488382671</v>
+        <v>392.7133504662584</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>827.5164515195817</v>
+        <v>961.536831759815</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>349.2859233849977</v>
+        <v>357.4162674306808</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>721.8879091267727</v>
+        <v>741.2522988704665</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>562.0438620921778</v>
+        <v>577.7010902461019</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>187.2902764561509</v>
+        <v>206.8693538787111</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>335.7856438273623</v>
+        <v>292.3076029338073</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>229.9872819431919</v>
+        <v>313.988259203161</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>239.8095667488747</v>
+        <v>279.315631463002</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>459.2884812199374</v>
+        <v>513.1025332886219</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>122.0055034031848</v>
+        <v>146.3461565661812</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>230.3339715392987</v>
+        <v>225.2821762711158</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>392.3726919618056</v>
+        <v>430.8356377719717</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>416.822542993115</v>
+        <v>491.007634001666</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>298.4843909536987</v>
+        <v>262.3065072619092</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>323.0509514939601</v>
+        <v>330.4174917954795</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>384.3059607730677</v>
+        <v>395.1733303703925</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>554.410383466937</v>
+        <v>582.4604096556413</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>573.8708274969339</v>
+        <v>592.3220793432746</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>385.2222658155724</v>
+        <v>440.0371911670778</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>370.4321494385197</v>
+        <v>339.3281460726099</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>535.8048501721952</v>
+        <v>535.4373348413063</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>1025.608744991123</v>
+        <v>1034.22397521522</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>951.2584523138421</v>
+        <v>942.0798500687439</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>2670.959520251579</v>
+        <v>2556.322940837485</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>204.9535691158967</v>
+        <v>203.0921953770293</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>408.0102617730157</v>
+        <v>434.929616883388</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>512.8042443279733</v>
+        <v>479.5029652243543</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>492.9069767848976</v>
+        <v>443.7763465257846</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>404.1927470243353</v>
+        <v>384.1786126570644</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>836.3774723713651</v>
+        <v>885.7787795211219</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>668.0817719395344</v>
+        <v>551.2671433561618</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>186.0120570849355</v>
+        <v>167.2462418508217</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>249.469037451291</v>
+        <v>258.1581578456859</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>794.1654806961329</v>
+        <v>673.6173127853641</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>650.0453818309416</v>
+        <v>752.7622663297315</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>235.5982172400086</v>
+        <v>205.008990054151</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>556.892681591793</v>
+        <v>606.3423495381203</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>535.5968586225144</v>
+        <v>552.6563269837352</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>244.009476555591</v>
+        <v>282.6340432699503</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>473.0896015322255</v>
+        <v>578.0331311602932</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>380.4843167344666</v>
+        <v>453.593906918838</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>675.1026249430388</v>
+        <v>658.9815702139346</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>192.6325204525758</v>
+        <v>206.8056580544636</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>371.9660105297114</v>
+        <v>376.0370683575975</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>290.0538751881652</v>
+        <v>384.6942865812222</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>389.7632812783659</v>
+        <v>458.2749534693805</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>417.7789050480793</v>
+        <v>349.2831518345378</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>860.5271385711925</v>
+        <v>768.0132554552291</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>526.230888709675</v>
+        <v>568.1695053414463</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>318.0404435356156</v>
+        <v>284.6940391951609</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>711.751432323715</v>
+        <v>826.814796381126</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>340.0254148567691</v>
+        <v>347.8485610776992</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>351.2529878391979</v>
+        <v>341.451620045106</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>689.703664951409</v>
+        <v>798.1025865963734</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>250.9198819351488</v>
+        <v>290.5519873968021</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>550.632256270463</v>
+        <v>655.640749622606</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>113.8839284605372</v>
+        <v>146.4445052610482</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>559.3958045112061</v>
+        <v>733.0459778365107</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>178.8401956091491</v>
+        <v>202.117163337453</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>240.3614393076844</v>
+        <v>264.8217902181503</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>147.246753817125</v>
+        <v>160.1468417285811</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>269.8399237386541</v>
+        <v>294.4396278270052</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>772.9973286654578</v>
+        <v>677.791291360811</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>260.8628670979982</v>
+        <v>265.7142181336326</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>611.6611020951455</v>
+        <v>706.8756903257045</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>374.5525350086132</v>
+        <v>358.8692169056732</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>268.1332823090791</v>
+        <v>273.1932121892833</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>247.810433127753</v>
+        <v>208.0360833245342</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>333.0721843598764</v>
+        <v>305.8586084452824</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>258.9991624633457</v>
+        <v>346.1226695862017</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>137.6042382725913</v>
+        <v>150.6592121591557</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>298.8219973746511</v>
+        <v>347.2279315019609</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>674.710170600444</v>
+        <v>694.3757024889607</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>169.7783087262696</v>
+        <v>182.2459804190198</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>266.2175516406748</v>
+        <v>276.4266215895825</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>250.9099478040403</v>
+        <v>312.6624324798756</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>398.7219923904729</v>
+        <v>335.6336301980337</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>358.1820037606747</v>
+        <v>315.3171725207596</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>169.7622971167328</v>
+        <v>177.6168649917534</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>623.2117533934158</v>
+        <v>556.4126893755421</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>521.4964997438384</v>
+        <v>542.1111535623386</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>542.8703424719729</v>
+        <v>561.9105892965048</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>427.8019955189166</v>
+        <v>382.9027156167348</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>333.0152696908676</v>
+        <v>364.7042812605463</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>485.1237148800426</v>
+        <v>523.1876163045299</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>356.8683720072213</v>
+        <v>251.4939478746856</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>249.7702454227644</v>
+        <v>292.9787406407888</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>494.5098998328412</v>
+        <v>513.2210969470003</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>398.2826148994415</v>
+        <v>524.9872356301074</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>290.3198162501506</v>
+        <v>310.4036986958791</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>478.2654817413783</v>
+        <v>443.8009868591894</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>944.9478619292723</v>
+        <v>955.686763105566</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>356.9341510928155</v>
+        <v>384.8103421098465</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>292.2637936683875</v>
+        <v>247.1903920190585</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>274.6505743803266</v>
+        <v>297.290772737952</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>412.6936988270839</v>
+        <v>423.8382588175023</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>433.0433122459941</v>
+        <v>579.4273432982699</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>303.1619885979534</v>
+        <v>258.5335113133874</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>369.7638108156906</v>
+        <v>333.4145322288841</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>374.5225441050059</v>
+        <v>321.4763031078191</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>69.03475480760166</v>
+        <v>72.87476254672761</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>241.0272265816288</v>
+        <v>227.8124700977926</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>335.7938423310267</v>
+        <v>323.2575380594243</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>378.0126849893275</v>
+        <v>315.2857928035929</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>774.7354353217664</v>
+        <v>952.5104888925449</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>287.1834626019645</v>
+        <v>266.7119707403369</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>526.5841035531589</v>
+        <v>557.3430878036983</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>1093.144377293751</v>
+        <v>984.9449421879573</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844">
-        <v>198.5150440551728</v>
+        <v>234.3290565048046</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>496.218817360833</v>
+        <v>503.6209110770968</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846">
-        <v>579.3882813937976</v>
+        <v>724.9013988739089</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
-        <v>496.6574523607316</v>
+        <v>407.6362584992734</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848">
-        <v>440.6092495649978</v>
+        <v>441.1876889091366</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849">
-        <v>694.8487828173739</v>
+        <v>618.581318743889</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850">
-        <v>359.8575461644305</v>
+        <v>401.7836546989533</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851">
-        <v>507.5849023442648</v>
+        <v>483.6598171300249</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852">
-        <v>499.4950701429217</v>
+        <v>499.6220490087405</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853">
-        <v>491.2562711560733</v>
+        <v>664.7354060048937</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854">
-        <v>480.2195674041263</v>
+        <v>484.3592571194504</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855">
-        <v>195.6284420626588</v>
+        <v>233.29044502372</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856">
-        <v>392.382416783563</v>
+        <v>454.7400684507311</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857">
-        <v>245.8852610467636</v>
+        <v>310.0140769855232</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858">
-        <v>183.0543593148146</v>
+        <v>226.7142187575114</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859">
-        <v>246.9928446220295</v>
+        <v>270.019746925021</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860">
-        <v>339.2855085358401</v>
+        <v>323.4875151250586</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861">
-        <v>312.6909613123836</v>
+        <v>326.6286382254398</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862">
-        <v>441.9778123694136</v>
+        <v>581.1595999816221</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863">
-        <v>228.248475575631</v>
+        <v>241.6750704347193</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864">
-        <v>408.0619576630402</v>
+        <v>370.7568109543406</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>396.7194586665356</v>
+        <v>436.3646194233406</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866">
-        <v>221.5263811950629</v>
+        <v>234.7693807499645</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867">
-        <v>488.3831613371362</v>
+        <v>475.5090842924394</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868">
-        <v>244.4481884200079</v>
+        <v>233.9964763908822</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869">
-        <v>489.2232037522005</v>
+        <v>502.242311527779</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870">
-        <v>327.2599775390393</v>
+        <v>453.7789950978035</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871">
-        <v>406.7917153444441</v>
+        <v>338.5798874712108</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872">
-        <v>297.2502764270287</v>
+        <v>336.1936623764539</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873">
-        <v>811.2744681105786</v>
+        <v>834.1942120152015</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>119.9305568150691</v>
+        <v>166.9083096475003</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>620.7464553716401</v>
+        <v>546.3354227746737</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>982.6864042216703</v>
+        <v>743.3748012188375</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>268.6037482868088</v>
+        <v>286.264506075369</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
-        <v>255.1775554237261</v>
+        <v>240.5635669498636</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879">
-        <v>395.0965560550808</v>
+        <v>459.8429560670456</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880">
-        <v>103.2308638753473</v>
+        <v>129.6102595997974</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881">
-        <v>529.1737717381239</v>
+        <v>461.7864991001865</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882">
-        <v>356.3175771966792</v>
+        <v>366.4165605871679</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883">
-        <v>282.1566630740856</v>
+        <v>278.4685798101216</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884">
-        <v>359.2795969123133</v>
+        <v>363.6561685105294</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885">
-        <v>244.6335163338472</v>
+        <v>379.9316911724363</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886">
-        <v>336.3401664254185</v>
+        <v>297.1104889882954</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887">
-        <v>592.6122365503456</v>
+        <v>621.424666515586</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888">
-        <v>363.4075222849945</v>
+        <v>306.4780971510135</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889">
-        <v>422.5063720091014</v>
+        <v>550.8263800446613</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890">
-        <v>298.0793000211611</v>
+        <v>372.093613680896</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891">
-        <v>627.7981353639133</v>
+        <v>479.7753105512936</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892">
-        <v>834.4368718116317</v>
+        <v>642.2972586369049</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893">
-        <v>223.0547126208635</v>
+        <v>225.2310365653769</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894">
-        <v>402.7631995421195</v>
+        <v>378.471783097202</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895">
-        <v>319.712908468598</v>
+        <v>422.5168362605658</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896">
-        <v>505.4129124073523</v>
+        <v>641.0078351568189</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897">
-        <v>549.0528664187163</v>
+        <v>548.010453550993</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898">
-        <v>630.5056603192926</v>
+        <v>624.8355785353468</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899">
-        <v>420.3529170064339</v>
+        <v>418.0846881947962</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900">
-        <v>1040.476978492602</v>
+        <v>1030.000704939552</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901">
-        <v>211.836066486033</v>
+        <v>229.5648818132318</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902">
-        <v>187.0258217204414</v>
+        <v>243.3036960808544</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903">
-        <v>326.480738424526</v>
+        <v>355.2678218736096</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904">
-        <v>369.4299675422572</v>
+        <v>367.1668076728702</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905">
-        <v>232.7408571036011</v>
+        <v>244.9528440980542</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906">
-        <v>470.6859891886466</v>
+        <v>461.4833265549168</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907">
-        <v>575.9658451925397</v>
+        <v>646.9092935416012</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908">
-        <v>729.7197053334845</v>
+        <v>525.3247842011519</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909">
-        <v>223.1733965569494</v>
+        <v>233.7488169765816</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910">
-        <v>468.2700981404537</v>
+        <v>519.3430269569036</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911">
-        <v>271.2219606298054</v>
+        <v>256.4632358963602</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912">
-        <v>291.649315282586</v>
+        <v>285.9535007384538</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913">
-        <v>529.6347967093933</v>
+        <v>566.6266487238835</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914">
-        <v>213.3502827967136</v>
+        <v>194.7936040265129</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915">
-        <v>712.6425064039835</v>
+        <v>769.3825247345261</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916">
-        <v>675.1385031414671</v>
+        <v>640.2314129479032</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917">
-        <v>413.7111508110859</v>
+        <v>584.9852926591512</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918">
-        <v>485.2470289346299</v>
+        <v>614.6772327801707</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919">
-        <v>267.481775893852</v>
+        <v>242.4002037548646</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920">
-        <v>1352.412631958345</v>
+        <v>1473.096059211429</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921">
-        <v>360.8831303091372</v>
+        <v>430.269448858827</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922">
-        <v>247.7603752903019</v>
+        <v>213.4122362508797</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923">
-        <v>513.8007299146573</v>
+        <v>461.0565958829646</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924">
-        <v>180.7620497222569</v>
+        <v>167.0202461761772</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925">
-        <v>290.8707500629269</v>
+        <v>335.2076461367991</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926">
-        <v>244.0686357154492</v>
+        <v>240.2844019610114</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927">
-        <v>681.2359757688204</v>
+        <v>695.19349197049</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928">
-        <v>209.0364881308834</v>
+        <v>297.0739164294383</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929">
-        <v>293.3366502959626</v>
+        <v>324.4733419208046</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930">
-        <v>1307.813694357472</v>
+        <v>1129.918548840062</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931">
-        <v>323.8686808939075</v>
+        <v>261.991416029108</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932">
-        <v>1040.764825121852</v>
+        <v>870.9668520544489</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933">
-        <v>546.2673665703887</v>
+        <v>549.3769828248611</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934">
-        <v>238.5070419410796</v>
+        <v>219.5907893513181</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935">
-        <v>253.1158938404517</v>
+        <v>231.6810361023141</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936">
-        <v>178.8904285548712</v>
+        <v>204.5012865837539</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937">
-        <v>382.9111451669178</v>
+        <v>363.0034814501166</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938">
-        <v>845.5348890014794</v>
+        <v>597.9955589506238</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939">
-        <v>256.7532849545282</v>
+        <v>292.0979691560687</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940">
-        <v>471.6957032390148</v>
+        <v>408.3589708875766</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941">
-        <v>235.7416873009572</v>
+        <v>257.2513845057059</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942">
-        <v>1014.338223083709</v>
+        <v>817.3688139398897</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943">
-        <v>210.8439879942518</v>
+        <v>231.221474505351</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944">
-        <v>284.2365781862395</v>
+        <v>352.3603344321846</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945">
-        <v>488.8198719544252</v>
+        <v>521.6687184861081</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946">
-        <v>507.5849023442648</v>
+        <v>483.6598171300249</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947">
-        <v>351.6933789344521</v>
+        <v>340.5181085391567</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948">
-        <v>487.8813404027898</v>
+        <v>448.5291426335737</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949">
-        <v>371.0398351878269</v>
+        <v>338.5179229250428</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950">
-        <v>307.0494920520017</v>
+        <v>340.487255250946</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951">
-        <v>264.4557265216298</v>
+        <v>231.0716351331547</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952">
-        <v>278.5177411608405</v>
+        <v>321.7594544969273</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953">
-        <v>324.9109739256318</v>
+        <v>426.825333179903</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954">
-        <v>332.9850045877961</v>
+        <v>323.046137784014</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955">
-        <v>571.9267647206831</v>
+        <v>591.9017821209949</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956">
-        <v>427.9828149627933</v>
+        <v>456.9474638129553</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957">
-        <v>283.9314207188032</v>
+        <v>310.7916136860148</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958">
-        <v>863.1423263170822</v>
+        <v>852.8091678101606</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959">
-        <v>329.5988001141968</v>
+        <v>383.4849560835663</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960">
-        <v>237.2512699461724</v>
+        <v>272.5554486335071</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961">
-        <v>402.131165855996</v>
+        <v>416.5228863171948</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962">
-        <v>490.4406204793774</v>
+        <v>593.8081180709697</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963">
-        <v>193.7692495496818</v>
+        <v>230.1542804147658</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964">
-        <v>698.1745352830388</v>
+        <v>650.55473940146</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965">
-        <v>332.9247908832473</v>
+        <v>442.0409929701327</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966">
-        <v>591.5771096018447</v>
+        <v>463.9327065534051</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967">
-        <v>226.9496110280842</v>
+        <v>250.036202936569</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968">
-        <v>370.2197665650665</v>
+        <v>404.8465027310386</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969">
-        <v>358.1623641887665</v>
+        <v>363.3190424251723</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970">
-        <v>386.816111836318</v>
+        <v>538.8624415989511</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971">
-        <v>659.8344620002678</v>
+        <v>551.9679546072188</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972">
-        <v>469.2813732814952</v>
+        <v>471.3888682868431</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973">
-        <v>550.4975535401477</v>
+        <v>463.1974113567616</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974">
-        <v>533.7248355011251</v>
+        <v>444.6115814594088</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975">
-        <v>628.4740136276605</v>
+        <v>627.1538660872662</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976">
-        <v>261.6208916107078</v>
+        <v>275.1537150872339</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977">
-        <v>499.5208027768147</v>
+        <v>524.8318719946679</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978">
-        <v>540.9928854924121</v>
+        <v>510.000135034096</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979">
-        <v>339.0585769653165</v>
+        <v>416.7864611482526</v>
       </c>
     </row>
     <row r="980" spans="1:1">
       <c r="A980">
-        <v>665.1931732180233</v>
+        <v>641.4874967236633</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981">
-        <v>227.2201290484861</v>
+        <v>233.4521879370558</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982">
-        <v>182.5642067521701</v>
+        <v>177.0159871360341</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983">
-        <v>437.2349712134375</v>
+        <v>442.6587029849961</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984">
-        <v>88.41979307659408</v>
+        <v>69.16910174761183</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985">
-        <v>797.0821617367747</v>
+        <v>700.772918057614</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986">
-        <v>445.9657749418846</v>
+        <v>485.8858766183551</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987">
-        <v>223.6040368916803</v>
+        <v>295.746460367293</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988">
-        <v>361.161655466339</v>
+        <v>381.1526355159867</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989">
-        <v>368.2011692422436</v>
+        <v>413.7934222173762</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990">
-        <v>454.0775658042987</v>
+        <v>460.269992461309</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991">
-        <v>414.6619081025915</v>
+        <v>417.8215808836153</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992">
-        <v>311.0317968595836</v>
+        <v>299.2847279121681</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993">
-        <v>358.1941892383177</v>
+        <v>399.6161366667302</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994">
-        <v>494.3268811084975</v>
+        <v>523.8388814562387</v>
       </c>
     </row>
     <row r="995" spans="1:1">
       <c r="A995">
-        <v>971.1257955653241</v>
+        <v>1104.682731960363</v>
       </c>
     </row>
     <row r="996" spans="1:1">
       <c r="A996">
-        <v>247.4773654210373</v>
+        <v>259.689593224127</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997">
-        <v>941.6180506099817</v>
+        <v>929.9879460604926</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998">
-        <v>209.5885448820474</v>
+        <v>225.3430636035737</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999">
-        <v>326.818893665439</v>
+        <v>338.6837404882164</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000">
-        <v>199.239609518488</v>
+        <v>174.1027827772069</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001">
-        <v>319.6997655268399</v>
+        <v>315.8151932637299</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002">
-        <v>208.4776910867999</v>
+        <v>218.5778869239293</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003">
-        <v>217.7934419785521</v>
+        <v>231.0118097316111</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004">
-        <v>425.2715139647898</v>
+        <v>491.8597069853743</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005">
-        <v>191.4474542217288</v>
+        <v>186.1551905201814</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006">
-        <v>382.4322794972274</v>
+        <v>390.4966500182611</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007">
-        <v>388.6503327273971</v>
+        <v>395.0635266509402</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008">
-        <v>296.0857657694298</v>
+        <v>306.5908603313583</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009">
-        <v>324.8295391368512</v>
+        <v>342.1743497637081</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010">
-        <v>303.5877315961007</v>
+        <v>386.9149754402145</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011">
-        <v>607.578250171481</v>
+        <v>580.1036477066018</v>
       </c>
     </row>
     <row r="1012" spans="1:1">
       <c r="A1012">
-        <v>566.710931567097</v>
+        <v>699.579144602122</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013">
-        <v>1072.24731235517</v>
+        <v>1044.909344862463</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014">
-        <v>563.9275320327462</v>
+        <v>648.4217600649928</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015">
-        <v>277.4826127991196</v>
+        <v>267.4159953445601</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016">
-        <v>262.6564638232214</v>
+        <v>258.9914512701922</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017">
-        <v>391.2860301459496</v>
+        <v>408.0037940541537</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018">
-        <v>168.4329460944695</v>
+        <v>153.1234778923687</v>
       </c>
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019">
-        <v>333.8478814181942</v>
+        <v>311.0999876115625</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020">
-        <v>201.6140624257111</v>
+        <v>182.2417873546439</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021">
-        <v>301.5398668527283</v>
+        <v>267.2083403053862</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022">
-        <v>303.6637674556701</v>
+        <v>292.7889637033418</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023">
-        <v>321.8362643356295</v>
+        <v>318.4469225632971</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024">
-        <v>399.3367054003861</v>
+        <v>350.0480757959015</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025">
-        <v>308.6593069220426</v>
+        <v>332.4000163673977</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026">
-        <v>314.3465648625795</v>
+        <v>290.3372124856737</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027">
-        <v>260.7592837479638</v>
+        <v>295.8021229229772</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028">
-        <v>346.5825741004538</v>
+        <v>367.9866048578283</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029">
-        <v>248.8373602071501</v>
+        <v>244.1406705875541</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030">
-        <v>213.4126970543288</v>
+        <v>241.4673847252657</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031">
-        <v>357.7798396218316</v>
+        <v>381.113267185487</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032">
-        <v>238.9590141202436</v>
+        <v>248.4063113694156</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033">
-        <v>626.823479911649</v>
+        <v>559.6059441896125</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034">
-        <v>246.6286053994301</v>
+        <v>275.1322423749012</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035">
-        <v>254.4337366550656</v>
+        <v>269.9254332516002</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036">
-        <v>312.9092045842722</v>
+        <v>296.1858032396638</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037">
-        <v>476.3021807556461</v>
+        <v>478.1088769325647</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038">
-        <v>386.1760184861653</v>
+        <v>455.88100100019</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039">
-        <v>78.28278141943993</v>
+        <v>77.35837921989058</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040">
-        <v>277.3609546892704</v>
+        <v>253.8281051932656</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041">
-        <v>283.0515225787999</v>
+        <v>296.9896466800949</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042">
-        <v>178.9861704857383</v>
+        <v>186.6517337250619</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043">
-        <v>457.2737532686238</v>
+        <v>547.7721033759503</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044">
-        <v>573.932876775668</v>
+        <v>500.7261755219174</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045">
-        <v>1074.36541992256</v>
+        <v>957.9479833182645</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046">
-        <v>303.0805116829737</v>
+        <v>394.5252013403592</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047">
-        <v>244.0341186393991</v>
+        <v>234.3560229246058</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048">
-        <v>332.1574004385918</v>
+        <v>391.7291031483102</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049">
-        <v>297.3243237180428</v>
+        <v>246.9157136805448</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050">
-        <v>531.7180175989902</v>
+        <v>538.2805759454891</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051">
-        <v>260.0713409059153</v>
+        <v>262.3921474993788</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052">
-        <v>1448.961975911644</v>
+        <v>1317.559068467121</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053">
-        <v>399.4771956169996</v>
+        <v>412.6482370664482</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054">
-        <v>2143.111678666311</v>
+        <v>2183.063605699762</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055">
-        <v>329.9953125375559</v>
+        <v>331.7944154072749</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056">
-        <v>708.2991841997861</v>
+        <v>525.7146528855641</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057">
-        <v>386.1057042600333</v>
+        <v>387.3444010567002</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058">
-        <v>1207.631002844991</v>
+        <v>1092.974741603703</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059">
-        <v>226.2497719101662</v>
+        <v>236.7313643060376</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060">
-        <v>571.1425765994392</v>
+        <v>573.5148590774915</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061">
-        <v>246.3923047839183</v>
+        <v>271.5690877052899</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062">
-        <v>341.8476308961002</v>
+        <v>304.4243211390728</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063">
-        <v>191.9221638807978</v>
+        <v>205.5804304846947</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064">
-        <v>713.1828893972887</v>
+        <v>662.5511167452747</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065">
-        <v>300.6594911301987</v>
+        <v>284.5300817463416</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066">
-        <v>622.5313972560775</v>
+        <v>687.0022121455473</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067">
-        <v>504.7189276948989</v>
+        <v>468.7353628580851</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068">
-        <v>223.088812876152</v>
+        <v>270.4228863447744</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069">
-        <v>387.1568947367784</v>
+        <v>325.0090081756319</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070">
-        <v>416.7872664765609</v>
+        <v>399.2502570589297</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071">
-        <v>381.8685273766935</v>
+        <v>392.2470724089206</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072">
-        <v>342.0288178018307</v>
+        <v>344.8911280352048</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073">
-        <v>270.2801424708552</v>
+        <v>324.1779676948102</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074">
-        <v>340.9483675123147</v>
+        <v>322.2370954118094</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075">
-        <v>313.7759387074888</v>
+        <v>292.7467978044163</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076">
-        <v>507.5967026353186</v>
+        <v>466.4280248428383</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077">
-        <v>923.5542151712815</v>
+        <v>724.1062915491706</v>
       </c>
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078">
-        <v>340.7327732433084</v>
+        <v>328.7456442227889</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079">
-        <v>518.4913486362123</v>
+        <v>617.4954516347429</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080">
-        <v>253.5297147403455</v>
+        <v>270.2124963631082</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081">
-        <v>282.1193880729387</v>
+        <v>243.6921485220076</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082">
-        <v>544.4967966206419</v>
+        <v>397.8734919213025</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083">
-        <v>242.6514709333704</v>
+        <v>385.7269445718634</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084">
-        <v>300.5513184330552</v>
+        <v>297.3170211481486</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085">
-        <v>254.1056951273569</v>
+        <v>254.4574094520067</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086">
-        <v>641.3153612038145</v>
+        <v>656.8202955528392</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087">
-        <v>312.4328076566059</v>
+        <v>325.4009403112568</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088">
-        <v>346.7109020637158</v>
+        <v>356.8452464819871</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089">
-        <v>302.6796438258876</v>
+        <v>351.0191578022659</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090">
-        <v>295.8690634240616</v>
+        <v>277.5131744855753</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091">
-        <v>300.3476530759665</v>
+        <v>301.4512990906751</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092">
-        <v>375.5985742010866</v>
+        <v>470.5221134030791</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093">
-        <v>237.0040372194299</v>
+        <v>249.8780584292298</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094">
-        <v>1206.640769747166</v>
+        <v>1096.78546459255</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095">
-        <v>387.4114788927649</v>
+        <v>391.1340135953978</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096">
-        <v>445.3634304319773</v>
+        <v>403.9879902215465</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097">
-        <v>537.0988806027043</v>
+        <v>622.3656480317292</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098">
-        <v>738.5203907789601</v>
+        <v>746.146934038134</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099">
-        <v>340.0041562165725</v>
+        <v>385.2254628824959</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100">
-        <v>322.9330208149144</v>
+        <v>283.3320203421961</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101">
-        <v>457.3162996677456</v>
+        <v>507.6133512418007</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102">
-        <v>509.7980435254361</v>
+        <v>429.5159335267064</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103">
-        <v>555.3536992788096</v>
+        <v>700.6656914618379</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104">
-        <v>592.4327589896841</v>
+        <v>475.1688932279635</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105">
-        <v>367.044173451171</v>
+        <v>308.9808580822652</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106">
-        <v>221.7871437272929</v>
+        <v>237.7305579073526</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107">
-        <v>260.6815269109597</v>
+        <v>248.0474497230738</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108">
-        <v>320.4312824658353</v>
+        <v>354.8131508392982</v>
       </c>
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109">
-        <v>761.9113202089715</v>
+        <v>702.2433665640556</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
       <c r="A1110">
-        <v>450.435712006785</v>
+        <v>445.5291770858979</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111">
-        <v>269.4740705215068</v>
+        <v>242.6892345290762</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
       <c r="A1112">
-        <v>72.35565085269177</v>
+        <v>65.56826173180745</v>
       </c>
     </row>
     <row r="1113" spans="1:1">
       <c r="A1113">
-        <v>454.6453397071916</v>
+        <v>390.5408614266764</v>
       </c>
     </row>
     <row r="1114" spans="1:1">
       <c r="A1114">
-        <v>409.0516377263259</v>
+        <v>359.195831922036</v>
       </c>
     </row>
     <row r="1115" spans="1:1">
       <c r="A1115">
-        <v>438.0273766738294</v>
+        <v>488.8826860473546</v>
       </c>
     </row>
     <row r="1116" spans="1:1">
       <c r="A1116">
-        <v>215.4039855274335</v>
+        <v>275.9768881715886</v>
       </c>
     </row>
     <row r="1117" spans="1:1">
       <c r="A1117">
-        <v>731.1003085293845</v>
+        <v>701.2191819621597</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
       <c r="A1118">
-        <v>244.6765908377321</v>
+        <v>263.8173620316485</v>
       </c>
     </row>
     <row r="1119" spans="1:1">
       <c r="A1119">
-        <v>310.8770916073752</v>
+        <v>318.3587259705408</v>
       </c>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120">
-        <v>276.5804627046313</v>
+        <v>295.239661232589</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121">
-        <v>488.2107105287801</v>
+        <v>435.4368599141714</v>
       </c>
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122">
-        <v>302.5541009633151</v>
+        <v>307.969722179407</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123">
-        <v>607.888142141513</v>
+        <v>756.1001346350225</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124">
-        <v>1411.913254110626</v>
+        <v>1176.351990268367</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
       <c r="A1125">
-        <v>502.2931782969268</v>
+        <v>467.6539182676694</v>
       </c>
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126">
-        <v>453.6180519895523</v>
+        <v>365.1822416084291</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127">
-        <v>317.5520089370466</v>
+        <v>375.2974145034885</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
       <c r="A1128">
-        <v>808.4339281529519</v>
+        <v>819.9506076617184</v>
       </c>
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129">
-        <v>314.51781466161</v>
+        <v>310.3862562022833</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
       <c r="A1130">
-        <v>251.0086582219779</v>
+        <v>291.8515275018785</v>
       </c>
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131">
-        <v>510.5214856774128</v>
+        <v>568.6757891022988</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132">
-        <v>308.0059316819117</v>
+        <v>250.697059102832</v>
       </c>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133">
-        <v>249.2875550310691</v>
+        <v>257.6089374519055</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134">
-        <v>463.148390385933</v>
+        <v>415.3450831126713</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135">
-        <v>271.6242639374009</v>
+        <v>268.713482758782</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136">
-        <v>233.3991854202776</v>
+        <v>275.1117775272306</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
       <c r="A1137">
-        <v>222.9019850881555</v>
+        <v>195.2790147642754</v>
       </c>
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138">
-        <v>454.104854905385</v>
+        <v>485.8697411137494</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139">
-        <v>76.23640451584787</v>
+        <v>80.73590775529412</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140">
-        <v>205.4010611827163</v>
+        <v>193.6781747158832</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141">
-        <v>1101.535706269952</v>
+        <v>757.0474554045696</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142">
-        <v>289.6234012172621</v>
+        <v>309.7200485730253</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143">
-        <v>517.5113573027269</v>
+        <v>426.9765171594613</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
       <c r="A1144">
-        <v>492.768021815464</v>
+        <v>446.6278779338138</v>
       </c>
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145">
-        <v>690.598192349164</v>
+        <v>853.1276995735907</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146">
-        <v>471.3451640092747</v>
+        <v>444.757613197564</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147">
-        <v>358.6824327856991</v>
+        <v>337.7025744710206</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148">
-        <v>658.8826468457172</v>
+        <v>582.5478631645886</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149">
-        <v>307.9340145025551</v>
+        <v>287.2596341498227</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150">
-        <v>276.6138253704777</v>
+        <v>281.6883035616169</v>
       </c>
     </row>
     <row r="1151" spans="1:1">
       <c r="A1151">
-        <v>429.2337619187747</v>
+        <v>364.862563387009</v>
       </c>
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152">
-        <v>243.7182338691379</v>
+        <v>306.6669112634875</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153">
-        <v>432.9993041465135</v>
+        <v>573.2837985507407</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154">
-        <v>396.9321145771186</v>
+        <v>541.3357858066978</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155">
-        <v>706.0552533892119</v>
+        <v>714.1531141371738</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156">
-        <v>378.6362690926554</v>
+        <v>347.8532906142727</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157">
-        <v>908.1387957034873</v>
+        <v>861.0630407742184</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>318.1840673641649</v>
+        <v>276.2999430446172</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159">
-        <v>252.4495782194038</v>
+        <v>268.3459116225222</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160">
-        <v>497.2690004237126</v>
+        <v>433.6709407166079</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>862.7133461667258</v>
+        <v>880.5840627045682</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162">
-        <v>236.819380022733</v>
+        <v>255.9448295454363</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163">
-        <v>656.8225381202579</v>
+        <v>619.0361874319251</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164">
-        <v>272.8201378648786</v>
+        <v>279.4255243153817</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
       <c r="A1165">
-        <v>284.841292877166</v>
+        <v>344.2934694012282</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166">
-        <v>539.8550287346258</v>
+        <v>470.1444960870307</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167">
-        <v>534.533003162859</v>
+        <v>512.4021753012281</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168">
-        <v>228.581720263089</v>
+        <v>250.0747373119103</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169">
-        <v>709.314332227842</v>
+        <v>841.8731235997038</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170">
-        <v>341.0702773278229</v>
+        <v>338.5869629082572</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171">
-        <v>377.6277873230997</v>
+        <v>365.52801720769</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172">
-        <v>284.0361964201341</v>
+        <v>291.0874089561096</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173">
-        <v>313.1743428712239</v>
+        <v>341.6287140528571</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>684.2508483546695</v>
+        <v>649.3233712835811</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175">
-        <v>227.2977675956367</v>
+        <v>289.8911297976338</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176">
-        <v>327.7316388720483</v>
+        <v>483.2727154079686</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177">
-        <v>358.5480665535658</v>
+        <v>358.2484653963054</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178">
-        <v>278.710083072351</v>
+        <v>368.2771711329132</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179">
-        <v>552.6551514936493</v>
+        <v>588.4905368992346</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180">
-        <v>301.7651095411755</v>
+        <v>313.6032328518494</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181">
-        <v>806.1777331881991</v>
+        <v>1128.884092440543</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182">
-        <v>506.0315121129347</v>
+        <v>754.9022210003959</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183">
-        <v>302.8435353110966</v>
+        <v>338.8351965549867</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184">
-        <v>556.433317441515</v>
+        <v>587.3228489345129</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185">
-        <v>266.5473328380199</v>
+        <v>390.7610683623673</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186">
-        <v>436.422589305577</v>
+        <v>528.2199082421049</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187">
-        <v>298.6926306686505</v>
+        <v>314.6303477040142</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188">
-        <v>1256.519015798622</v>
+        <v>1276.247642503717</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189">
-        <v>615.3929956430758</v>
+        <v>528.3691071130946</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190">
-        <v>540.9340745639489</v>
+        <v>502.7905999405831</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191">
-        <v>359.8411959617138</v>
+        <v>307.6065310504414</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192">
-        <v>437.9097366249795</v>
+        <v>462.1269073380834</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193">
-        <v>553.4204140776959</v>
+        <v>519.0038539692168</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194">
-        <v>293.1044637663896</v>
+        <v>411.2026413152876</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195">
-        <v>290.8174867860697</v>
+        <v>344.6475060291402</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196">
-        <v>281.1646342670001</v>
+        <v>288.3755587922181</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197">
-        <v>332.7649267401977</v>
+        <v>387.5059891141856</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>1162.921979358905</v>
+        <v>997.3092086430574</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199">
-        <v>777.5107027975637</v>
+        <v>803.7450183043225</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200">
-        <v>354.9868104019461</v>
+        <v>416.5580072108182</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201">
-        <v>314.3552803526106</v>
+        <v>281.547877598641</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202">
-        <v>313.3441391014129</v>
+        <v>352.6042228936815</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203">
-        <v>276.7643944076694</v>
+        <v>306.8850383437681</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204">
-        <v>129.2341460957871</v>
+        <v>135.6269004298144</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205">
-        <v>361.5506246620393</v>
+        <v>335.451464174381</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206">
-        <v>298.0418726255402</v>
+        <v>264.3034961769936</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207">
-        <v>254.208956224737</v>
+        <v>219.7322029608749</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208">
-        <v>365.8304272108116</v>
+        <v>432.4854301798641</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209">
-        <v>323.1771314313857</v>
+        <v>313.6298224708613</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210">
-        <v>638.0202381307882</v>
+        <v>733.4884095510051</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211">
-        <v>500.3260484196388</v>
+        <v>503.6235662486584</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212">
-        <v>736.3707510485616</v>
+        <v>978.8296193329123</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213">
-        <v>737.3523130552921</v>
+        <v>714.9611495673972</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214">
-        <v>332.6140356340723</v>
+        <v>307.498557773808</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215">
-        <v>351.0694780635933</v>
+        <v>388.765460742638</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216">
-        <v>303.2633556059712</v>
+        <v>293.091148714286</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217">
-        <v>566.9867815023435</v>
+        <v>488.6029092605052</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218">
-        <v>291.1619993880563</v>
+        <v>281.3715315451047</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219">
-        <v>283.8990392709692</v>
+        <v>346.7562345391661</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220">
-        <v>223.7486293050244</v>
+        <v>220.0311459327359</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221">
-        <v>685.8404863576087</v>
+        <v>598.3667195115003</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222">
-        <v>268.2196517976922</v>
+        <v>293.4722001625169</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223">
-        <v>389.8073534921237</v>
+        <v>418.7827231764547</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224">
-        <v>203.0619700755705</v>
+        <v>197.1581306308844</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225">
-        <v>603.255991273754</v>
+        <v>522.1467989805545</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226">
-        <v>656.7430476559211</v>
+        <v>696.3757744685036</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227">
-        <v>460.4866935006264</v>
+        <v>471.1319250860147</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228">
-        <v>208.7693539738216</v>
+        <v>243.8577557720647</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229">
-        <v>340.6411485000005</v>
+        <v>381.2937120863651</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230">
-        <v>491.048251477708</v>
+        <v>412.0558935221237</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231">
-        <v>426.7892877398481</v>
+        <v>468.5226916723803</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232">
-        <v>497.2309863175765</v>
+        <v>532.1437445143325</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233">
-        <v>339.3173541636639</v>
+        <v>371.4215590285685</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234">
-        <v>589.7421441255201</v>
+        <v>587.9455819693188</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235">
-        <v>383.5149066645188</v>
+        <v>381.7676995577797</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236">
-        <v>492.5477109551268</v>
+        <v>570.3643297370004</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237">
-        <v>701.8612685093599</v>
+        <v>674.7078179421486</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238">
-        <v>632.6008332702629</v>
+        <v>645.3673541356603</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239">
-        <v>329.2739209757379</v>
+        <v>325.0863089880952</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240">
-        <v>263.4654833948466</v>
+        <v>239.9529152236996</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241">
-        <v>355.2470995905944</v>
+        <v>426.2570227808844</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242">
-        <v>292.8342000350391</v>
+        <v>261.8959943100718</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243">
-        <v>684.6572543461972</v>
+        <v>787.2112279020561</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244">
-        <v>286.6461590106657</v>
+        <v>286.0739575521148</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245">
-        <v>3054.464526170941</v>
+        <v>3191.742934903431</v>
       </c>
     </row>
     <row r="1246" spans="1:1">
       <c r="A1246">
-        <v>383.588521638741</v>
+        <v>295.8795894513897</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247">
-        <v>579.5956732096264</v>
+        <v>756.1218758066028</v>
       </c>
     </row>
     <row r="1248" spans="1:1">
       <c r="A1248">
-        <v>271.5644605681379</v>
+        <v>260.9705069693887</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249">
-        <v>275.4715524648211</v>
+        <v>267.3722041617157</v>
       </c>
     </row>
     <row r="1250" spans="1:1">
       <c r="A1250">
-        <v>657.5820159518395</v>
+        <v>857.5387041854941</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251">
-        <v>259.4374950176513</v>
+        <v>258.0028433557172</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252">
-        <v>506.5979325512522</v>
+        <v>592.5809510703749</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253">
-        <v>364.1947860637043</v>
+        <v>347.3848225678743</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254">
-        <v>394.2666653389938</v>
+        <v>253.3400936119166</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255">
-        <v>313.1743428712239</v>
+        <v>341.6287140528571</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256">
-        <v>353.6869216575165</v>
+        <v>321.7464948416088</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257">
-        <v>1437.153797476429</v>
+        <v>1147.298472652528</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258">
-        <v>284.0678206176045</v>
+        <v>316.409644820505</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259">
-        <v>393.3255410809916</v>
+        <v>387.9173306127328</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260">
-        <v>392.1774908806179</v>
+        <v>447.4898890046488</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261">
-        <v>227.8114437187619</v>
+        <v>206.6881323123648</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262">
-        <v>314.1623164030707</v>
+        <v>437.0811776131692</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263">
-        <v>244.3051546691246</v>
+        <v>246.2232001493979</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264">
-        <v>908.8593782121274</v>
+        <v>930.2449170066752</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265">
-        <v>741.9550547940631</v>
+        <v>753.3886527380611</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266">
-        <v>267.6426393252491</v>
+        <v>301.4288504359353</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267">
-        <v>305.4367399164802</v>
+        <v>320.8947948529854</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268">
-        <v>345.0303656999925</v>
+        <v>294.1236152445119</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269">
-        <v>381.678561240527</v>
+        <v>546.0741150979547</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270">
-        <v>448.0270202330078</v>
+        <v>512.8858580352224</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271">
-        <v>577.1035108879015</v>
+        <v>551.7164036463778</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272">
-        <v>592.7566509386693</v>
+        <v>616.8341037239023</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273">
-        <v>238.0701654353938</v>
+        <v>235.6258669421237</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274">
-        <v>226.7683180160959</v>
+        <v>311.2072616049712</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275">
-        <v>268.7054879302933</v>
+        <v>274.8071969061619</v>
       </c>
     </row>
     <row r="1276" spans="1:1">
       <c r="A1276">
-        <v>370.7898138986699</v>
+        <v>413.8004401401006</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277">
-        <v>264.9370114645699</v>
+        <v>266.5682042962623</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
       <c r="A1278">
-        <v>289.2449569822191</v>
+        <v>282.9017632244004</v>
       </c>
     </row>
     <row r="1279" spans="1:1">
       <c r="A1279">
-        <v>711.313167176761</v>
+        <v>772.6506532362677</v>
       </c>
     </row>
     <row r="1280" spans="1:1">
       <c r="A1280">
-        <v>392.1244463479969</v>
+        <v>578.3041804824816</v>
       </c>
     </row>
     <row r="1281" spans="1:1">
       <c r="A1281">
-        <v>662.923647502929</v>
+        <v>569.5895724938035</v>
       </c>
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282">
-        <v>586.1289324608484</v>
+        <v>538.2856573706248</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283">
-        <v>285.1861706003005</v>
+        <v>353.147760222555</v>
       </c>
     </row>
     <row r="1284" spans="1:1">
       <c r="A1284">
-        <v>677.4478113171643</v>
+        <v>679.2532188577561</v>
       </c>
     </row>
     <row r="1285" spans="1:1">
       <c r="A1285">
-        <v>458.7734565106491</v>
+        <v>488.2004452056369</v>
       </c>
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286">
-        <v>384.9230687923876</v>
+        <v>477.097775207925</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287">
-        <v>290.2608160458336</v>
+        <v>279.4045059570312</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288">
-        <v>244.3065268880643</v>
+        <v>196.9741459240313</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289">
-        <v>456.9410622857054</v>
+        <v>433.6816463684172</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290">
-        <v>477.1262245439632</v>
+        <v>464.8524647722577</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291">
-        <v>307.0985548203134</v>
+        <v>341.5367779686358</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292">
-        <v>646.2614283376176</v>
+        <v>431.4325947078089</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293">
-        <v>342.8519294293069</v>
+        <v>509.517946823151</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294">
-        <v>197.0392005895637</v>
+        <v>260.526348859815</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295">
-        <v>239.0371972507174</v>
+        <v>355.1524329160952</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296">
-        <v>459.3914731493262</v>
+        <v>483.1572049383496</v>
       </c>
     </row>
     <row r="1297" spans="1:1">
       <c r="A1297">
-        <v>291.3111252764983</v>
+        <v>325.2316027881153</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298">
-        <v>708.5709504289922</v>
+        <v>526.5325816263027</v>
       </c>
     </row>
     <row r="1299" spans="1:1">
       <c r="A1299">
-        <v>356.4925166043408</v>
+        <v>374.1750259695461</v>
       </c>
     </row>
     <row r="1300" spans="1:1">
       <c r="A1300">
-        <v>194.3189172840513</v>
+        <v>205.5273656130889</v>
       </c>
     </row>
     <row r="1301" spans="1:1">
       <c r="A1301">
-        <v>367.9063128135161</v>
+        <v>391.9745940359071</v>
       </c>
     </row>
     <row r="1302" spans="1:1">
       <c r="A1302">
-        <v>452.6803755008684</v>
+        <v>470.9582294221118</v>
       </c>
     </row>
     <row r="1303" spans="1:1">
       <c r="A1303">
-        <v>700.3194399279224</v>
+        <v>684.5300865840327</v>
       </c>
     </row>
     <row r="1304" spans="1:1">
       <c r="A1304">
-        <v>394.8439331633517</v>
+        <v>423.8577396366425</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305">
-        <v>217.566151285322</v>
+        <v>224.1552377642602</v>
       </c>
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306">
-        <v>344.3099070184023</v>
+        <v>356.3110853425139</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307">
-        <v>241.2452449626024</v>
+        <v>279.041420626517</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
       <c r="A1308">
-        <v>1477.962893985289</v>
+        <v>915.5079579017888</v>
       </c>
     </row>
     <row r="1309" spans="1:1">
       <c r="A1309">
-        <v>1023.902732822375</v>
+        <v>878.3875294429712</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
       <c r="A1310">
-        <v>647.4684452118339</v>
+        <v>629.9652853941107</v>
       </c>
     </row>
     <row r="1311" spans="1:1">
       <c r="A1311">
-        <v>869.7873004922284</v>
+        <v>900.1650010321972</v>
       </c>
     </row>
     <row r="1312" spans="1:1">
       <c r="A1312">
-        <v>726.4238522088148</v>
+        <v>914.7817438469565</v>
       </c>
     </row>
     <row r="1313" spans="1:1">
       <c r="A1313">
-        <v>1304.885325923693</v>
+        <v>912.881529296946</v>
       </c>
     </row>
     <row r="1314" spans="1:1">
       <c r="A1314">
-        <v>283.7978350808332</v>
+        <v>309.7764451207324</v>
       </c>
     </row>
     <row r="1315" spans="1:1">
       <c r="A1315">
-        <v>557.3083511733898</v>
+        <v>491.6624028979081</v>
       </c>
     </row>
     <row r="1316" spans="1:1">
       <c r="A1316">
-        <v>866.0709984095234</v>
+        <v>829.1750209202655</v>
       </c>
     </row>
     <row r="1317" spans="1:1">
       <c r="A1317">
-        <v>206.7021015902049</v>
+        <v>322.4886898855352</v>
       </c>
     </row>
     <row r="1318" spans="1:1">
       <c r="A1318">
-        <v>326.5163360218465</v>
+        <v>262.623757184778</v>
       </c>
     </row>
     <row r="1319" spans="1:1">
       <c r="A1319">
-        <v>340.889859856876</v>
+        <v>348.4647049061426</v>
       </c>
     </row>
     <row r="1320" spans="1:1">
       <c r="A1320">
-        <v>419.131427947498</v>
+        <v>468.4369505160051</v>
       </c>
     </row>
     <row r="1321" spans="1:1">
       <c r="A1321">
-        <v>415.8178358379644</v>
+        <v>428.0960556249432</v>
       </c>
     </row>
     <row r="1322" spans="1:1">
       <c r="A1322">
-        <v>248.7141542982789</v>
+        <v>279.3282442930036</v>
       </c>
     </row>
     <row r="1323" spans="1:1">
       <c r="A1323">
-        <v>274.4000307413564</v>
+        <v>313.3381290716335</v>
       </c>
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324">
-        <v>344.1656872672946</v>
+        <v>286.5084332835983</v>
       </c>
     </row>
     <row r="1325" spans="1:1">
       <c r="A1325">
-        <v>1650.75147478199</v>
+        <v>1823.118906374531</v>
       </c>
     </row>
     <row r="1326" spans="1:1">
       <c r="A1326">
-        <v>418.5907627046194</v>
+        <v>417.4281580545382</v>
       </c>
     </row>
     <row r="1327" spans="1:1">
       <c r="A1327">
-        <v>371.0252213918099</v>
+        <v>428.7781802151981</v>
       </c>
     </row>
     <row r="1328" spans="1:1">
       <c r="A1328">
-        <v>510.3337070906227</v>
+        <v>512.2838951237466</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
       <c r="A1329">
-        <v>985.9758434606671</v>
+        <v>1081.329574009881</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330">
-        <v>769.60752121192</v>
+        <v>875.1291121721976</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331">
-        <v>292.3339279200583</v>
+        <v>288.849918548548</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332">
-        <v>991.8181237560298</v>
+        <v>1074.096821710976</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333">
-        <v>709.6519792342425</v>
+        <v>725.0517437108333</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334">
-        <v>1044.909333619883</v>
+        <v>991.2658428381365</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335">
-        <v>342.226145493614</v>
+        <v>339.2197564517401</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336">
-        <v>236.0067747605293</v>
+        <v>267.68314476438</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337">
-        <v>342.4516261035269</v>
+        <v>259.9458226303053</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
       <c r="A1338">
-        <v>242.2525466587559</v>
+        <v>252.6608472976978</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339">
-        <v>328.8912165215636</v>
+        <v>286.3183863879472</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340">
-        <v>144.9348371447485</v>
+        <v>143.7654614533832</v>
       </c>
     </row>
     <row r="1341" spans="1:1">
       <c r="A1341">
-        <v>216.658191848967</v>
+        <v>234.2781959474598</v>
       </c>
     </row>
     <row r="1342" spans="1:1">
       <c r="A1342">
-        <v>346.6888676161336</v>
+        <v>347.4072090621084</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343">
-        <v>402.9358713227631</v>
+        <v>431.34460273778</v>
       </c>
     </row>
     <row r="1344" spans="1:1">
       <c r="A1344">
-        <v>614.4843676155343</v>
+        <v>532.0478908842584</v>
       </c>
     </row>
     <row r="1345" spans="1:1">
       <c r="A1345">
-        <v>247.3861650500017</v>
+        <v>293.1461290668207</v>
       </c>
     </row>
     <row r="1346" spans="1:1">
       <c r="A1346">
-        <v>1242.980931063285</v>
+        <v>831.8866840128949</v>
       </c>
     </row>
     <row r="1347" spans="1:1">
       <c r="A1347">
-        <v>202.3498497298612</v>
+        <v>210.3914104322894</v>
       </c>
     </row>
     <row r="1348" spans="1:1">
       <c r="A1348">
-        <v>263.6411381986088</v>
+        <v>258.9037506009664</v>
       </c>
     </row>
     <row r="1349" spans="1:1">
       <c r="A1349">
-        <v>293.84243672755</v>
+        <v>285.8243045284812</v>
       </c>
     </row>
     <row r="1350" spans="1:1">
       <c r="A1350">
-        <v>374.7434234390764</v>
+        <v>533.9851122773963</v>
       </c>
     </row>
     <row r="1351" spans="1:1">
       <c r="A1351">
-        <v>457.566603349128</v>
+        <v>455.6471952734969</v>
       </c>
     </row>
     <row r="1352" spans="1:1">
       <c r="A1352">
-        <v>457.7256648181199</v>
+        <v>464.0390848840298</v>
       </c>
     </row>
     <row r="1353" spans="1:1">
       <c r="A1353">
-        <v>520.7551748973208</v>
+        <v>528.8327361244359</v>
       </c>
     </row>
     <row r="1354" spans="1:1">
       <c r="A1354">
-        <v>873.8100801108307</v>
+        <v>1005.59289041001</v>
       </c>
     </row>
     <row r="1355" spans="1:1">
       <c r="A1355">
-        <v>502.2258688540817</v>
+        <v>397.2095543270764</v>
       </c>
     </row>
     <row r="1356" spans="1:1">
       <c r="A1356">
-        <v>379.7543835953602</v>
+        <v>291.4844581377182</v>
       </c>
     </row>
     <row r="1357" spans="1:1">
       <c r="A1357">
-        <v>341.3912584810996</v>
+        <v>375.6206919618867</v>
       </c>
     </row>
     <row r="1358" spans="1:1">
       <c r="A1358">
-        <v>462.0948251563273</v>
+        <v>414.8189959570721</v>
       </c>
     </row>
     <row r="1359" spans="1:1">
       <c r="A1359">
-        <v>508.075045416283</v>
+        <v>456.2736822706132</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
       <c r="A1360">
-        <v>601.3144094084029</v>
+        <v>813.375493819715</v>
       </c>
     </row>
     <row r="1361" spans="1:1">
       <c r="A1361">
-        <v>603.7883365417932</v>
+        <v>583.5877187858982</v>
       </c>
     </row>
     <row r="1362" spans="1:1">
       <c r="A1362">
-        <v>866.164188552485</v>
+        <v>1089.273341191184</v>
       </c>
     </row>
     <row r="1363" spans="1:1">
       <c r="A1363">
-        <v>305.9163620574291</v>
+        <v>374.15281283032</v>
       </c>
     </row>
     <row r="1364" spans="1:1">
       <c r="A1364">
-        <v>820.7219975739196</v>
+        <v>746.0934934425267</v>
       </c>
     </row>
     <row r="1365" spans="1:1">
       <c r="A1365">
-        <v>230.5542167577825</v>
+        <v>204.2071227167867</v>
       </c>
     </row>
     <row r="1366" spans="1:1">
       <c r="A1366">
-        <v>738.2375147486515</v>
+        <v>674.9954659348888</v>
       </c>
     </row>
     <row r="1367" spans="1:1">
       <c r="A1367">
-        <v>369.0582273714297</v>
+        <v>328.0173566001532</v>
       </c>
     </row>
     <row r="1368" spans="1:1">
       <c r="A1368">
-        <v>907.770105720008</v>
+        <v>655.7690191778858</v>
       </c>
     </row>
     <row r="1369" spans="1:1">
       <c r="A1369">
-        <v>896.3594387492782</v>
+        <v>797.1406715329459</v>
       </c>
     </row>
     <row r="1370" spans="1:1">
       <c r="A1370">
-        <v>668.8948422750635</v>
+        <v>608.1948586733389</v>
       </c>
     </row>
     <row r="1371" spans="1:1">
       <c r="A1371">
-        <v>389.1060407145928</v>
+        <v>367.408766542095</v>
       </c>
     </row>
     <row r="1372" spans="1:1">
       <c r="A1372">
-        <v>307.933702314805</v>
+        <v>315.8935517806381</v>
       </c>
     </row>
     <row r="1373" spans="1:1">
       <c r="A1373">
-        <v>263.4159271212836</v>
+        <v>253.9590018294954</v>
       </c>
     </row>
     <row r="1374" spans="1:1">
       <c r="A1374">
-        <v>634.4337935606146</v>
+        <v>557.4785903734787</v>
       </c>
     </row>
     <row r="1375" spans="1:1">
       <c r="A1375">
-        <v>682.544704511133</v>
+        <v>609.3940970689714</v>
       </c>
     </row>
     <row r="1376" spans="1:1">
       <c r="A1376">
-        <v>962.7630593799723</v>
+        <v>1123.72116348692</v>
       </c>
     </row>
     <row r="1377" spans="1:1">
       <c r="A1377">
-        <v>334.3256040620235</v>
+        <v>405.5902222866591</v>
       </c>
     </row>
     <row r="1378" spans="1:1">
       <c r="A1378">
-        <v>1017.152553758537</v>
+        <v>1065.8808321433</v>
       </c>
     </row>
     <row r="1379" spans="1:1">
       <c r="A1379">
-        <v>226.1083685805204</v>
+        <v>228.7818068021321</v>
       </c>
     </row>
     <row r="1380" spans="1:1">
       <c r="A1380">
-        <v>541.5856043783734</v>
+        <v>567.8722570323781</v>
       </c>
     </row>
     <row r="1381" spans="1:1">
       <c r="A1381">
-        <v>332.8672071031372</v>
+        <v>327.7754445592325</v>
       </c>
     </row>
     <row r="1382" spans="1:1">
       <c r="A1382">
-        <v>315.2201311292071</v>
+        <v>296.7064623374466</v>
       </c>
     </row>
     <row r="1383" spans="1:1">
       <c r="A1383">
-        <v>218.9384198485491</v>
+        <v>189.2626946705928</v>
       </c>
     </row>
     <row r="1384" spans="1:1">
       <c r="A1384">
-        <v>282.0851851250637</v>
+        <v>246.5435984929623</v>
       </c>
     </row>
     <row r="1385" spans="1:1">
       <c r="A1385">
-        <v>805.1502899076883</v>
+        <v>815.0829940479543</v>
       </c>
     </row>
     <row r="1386" spans="1:1">
       <c r="A1386">
-        <v>315.007196447603</v>
+        <v>294.8971706560491</v>
       </c>
     </row>
     <row r="1387" spans="1:1">
       <c r="A1387">
-        <v>491.8622443940597</v>
+        <v>474.4161780587265</v>
       </c>
     </row>
     <row r="1388" spans="1:1">
       <c r="A1388">
-        <v>630.377640252957</v>
+        <v>636.8915329490319</v>
       </c>
     </row>
     <row r="1389" spans="1:1">
       <c r="A1389">
-        <v>739.9738347498311</v>
+        <v>689.7590946630771</v>
       </c>
     </row>
     <row r="1390" spans="1:1">
       <c r="A1390">
-        <v>401.6576779148956</v>
+        <v>437.1005284083205</v>
       </c>
     </row>
     <row r="1391" spans="1:1">
       <c r="A1391">
-        <v>220.839029930759</v>
+        <v>212.8476873202409</v>
       </c>
     </row>
     <row r="1392" spans="1:1">
       <c r="A1392">
-        <v>579.1392377491185</v>
+        <v>648.0464928794983</v>
       </c>
     </row>
     <row r="1393" spans="1:1">
       <c r="A1393">
-        <v>399.9878418594397</v>
+        <v>417.6394713092286</v>
       </c>
     </row>
     <row r="1394" spans="1:1">
       <c r="A1394">
-        <v>587.4622197525315</v>
+        <v>600.5370880757808</v>
       </c>
     </row>
     <row r="1395" spans="1:1">
       <c r="A1395">
-        <v>901.77957442682</v>
+        <v>880.5969749116525</v>
       </c>
     </row>
     <row r="1396" spans="1:1">
       <c r="A1396">
-        <v>318.3780023726846</v>
+        <v>334.3743857690927</v>
       </c>
     </row>
     <row r="1397" spans="1:1">
       <c r="A1397">
-        <v>204.8273168864539</v>
+        <v>206.5295576857114</v>
       </c>
     </row>
     <row r="1398" spans="1:1">
       <c r="A1398">
-        <v>449.5785521335168</v>
+        <v>293.1693854640825</v>
       </c>
     </row>
     <row r="1399" spans="1:1">
       <c r="A1399">
-        <v>222.0887724281806</v>
+        <v>230.9081226530732</v>
       </c>
     </row>
     <row r="1400" spans="1:1">
       <c r="A1400">
-        <v>386.2380812237163</v>
+        <v>355.9263922349496</v>
       </c>
     </row>
     <row r="1401" spans="1:1">
       <c r="A1401">
-        <v>368.3162460689302</v>
+        <v>358.7398279535079</v>
       </c>
     </row>
     <row r="1402" spans="1:1">
       <c r="A1402">
-        <v>759.0531599073453</v>
+        <v>887.7597938735522</v>
       </c>
     </row>
     <row r="1403" spans="1:1">
       <c r="A1403">
-        <v>852.9450924315574</v>
+        <v>733.069682953833</v>
       </c>
     </row>
     <row r="1404" spans="1:1">
       <c r="A1404">
-        <v>807.0467699474971</v>
+        <v>556.6288316666663</v>
       </c>
     </row>
     <row r="1405" spans="1:1">
       <c r="A1405">
-        <v>146.3786261998144</v>
+        <v>150.431906404476</v>
       </c>
     </row>
     <row r="1406" spans="1:1">
       <c r="A1406">
-        <v>332.5449949897679</v>
+        <v>314.5995240379983</v>
       </c>
     </row>
     <row r="1407" spans="1:1">
       <c r="A1407">
-        <v>255.1051615891538</v>
+        <v>244.272380035368</v>
       </c>
     </row>
     <row r="1408" spans="1:1">
       <c r="A1408">
-        <v>354.1892994439779</v>
+        <v>354.1972467592621</v>
       </c>
     </row>
     <row r="1409" spans="1:1">
       <c r="A1409">
-        <v>292.2637936683875</v>
+        <v>247.1903920190585</v>
       </c>
     </row>
     <row r="1410" spans="1:1">
       <c r="A1410">
-        <v>1210.86436184864</v>
+        <v>1311.469528816801</v>
       </c>
     </row>
     <row r="1411" spans="1:1">
       <c r="A1411">
-        <v>567.5467094926875</v>
+        <v>481.6946150525225</v>
       </c>
     </row>
     <row r="1412" spans="1:1">
       <c r="A1412">
-        <v>701.7408866950996</v>
+        <v>572.555360958258</v>
       </c>
     </row>
     <row r="1413" spans="1:1">
       <c r="A1413">
-        <v>547.7191648278598</v>
+        <v>543.2827844743068</v>
       </c>
     </row>
     <row r="1414" spans="1:1">
       <c r="A1414">
-        <v>584.8209996312776</v>
+        <v>607.1675425351409</v>
       </c>
     </row>
     <row r="1415" spans="1:1">
       <c r="A1415">
-        <v>551.7195789069669</v>
+        <v>578.5066160494117</v>
       </c>
     </row>
     <row r="1416" spans="1:1">
       <c r="A1416">
-        <v>142.9736211643279</v>
+        <v>167.6729882694368</v>
       </c>
     </row>
     <row r="1417" spans="1:1">
       <c r="A1417">
-        <v>307.980472431954</v>
+        <v>400.8146949486206</v>
       </c>
     </row>
     <row r="1418" spans="1:1">
       <c r="A1418">
-        <v>297.1486435859757</v>
+        <v>247.6700034001252</v>
       </c>
     </row>
     <row r="1419" spans="1:1">
       <c r="A1419">
-        <v>360.7548268371751</v>
+        <v>338.7699302288208</v>
       </c>
     </row>
     <row r="1420" spans="1:1">
       <c r="A1420">
-        <v>381.9160798013584</v>
+        <v>320.1612691289521</v>
       </c>
     </row>
     <row r="1421" spans="1:1">
       <c r="A1421">
-        <v>423.1380515262755</v>
+        <v>410.1253395560878</v>
       </c>
     </row>
     <row r="1422" spans="1:1">
       <c r="A1422">
-        <v>364.1275597529558</v>
+        <v>347.7204215991058</v>
       </c>
     </row>
     <row r="1423" spans="1:1">
       <c r="A1423">
-        <v>194.5841856508799</v>
+        <v>198.6265931844754</v>
       </c>
     </row>
     <row r="1424" spans="1:1">
       <c r="A1424">
-        <v>844.4046261516304</v>
+        <v>843.9532712728824</v>
       </c>
     </row>
     <row r="1425" spans="1:1">
       <c r="A1425">
-        <v>776.7994183364866</v>
+        <v>646.9727504265238</v>
       </c>
     </row>
     <row r="1426" spans="1:1">
       <c r="A1426">
-        <v>326.1274255442692</v>
+        <v>378.3873082332712</v>
       </c>
     </row>
     <row r="1427" spans="1:1">
       <c r="A1427">
-        <v>297.2064597971075</v>
+        <v>275.6872023285228</v>
       </c>
     </row>
     <row r="1428" spans="1:1">
       <c r="A1428">
-        <v>255.8486011390378</v>
+        <v>270.0285227910637</v>
       </c>
     </row>
     <row r="1429" spans="1:1">
       <c r="A1429">
-        <v>443.7032140459121</v>
+        <v>482.8081791411202</v>
       </c>
     </row>
     <row r="1430" spans="1:1">
       <c r="A1430">
-        <v>420.7975915334189</v>
+        <v>468.4836682058306</v>
       </c>
     </row>
     <row r="1431" spans="1:1">
       <c r="A1431">
-        <v>845.5422594950224</v>
+        <v>824.0782681403066</v>
       </c>
     </row>
     <row r="1432" spans="1:1">
       <c r="A1432">
-        <v>695.7090631207748</v>
+        <v>661.8152649710928</v>
       </c>
     </row>
     <row r="1433" spans="1:1">
       <c r="A1433">
-        <v>169.7783087262696</v>
+        <v>182.2459804190198</v>
       </c>
     </row>
     <row r="1434" spans="1:1">
       <c r="A1434">
-        <v>325.5207709864357</v>
+        <v>261.1104531945059</v>
       </c>
     </row>
     <row r="1435" spans="1:1">
       <c r="A1435">
-        <v>302.2190535635927</v>
+        <v>287.6694652065923</v>
       </c>
     </row>
     <row r="1436" spans="1:1">
       <c r="A1436">
-        <v>568.1201105221143</v>
+        <v>648.0708577712602</v>
       </c>
     </row>
     <row r="1437" spans="1:1">
       <c r="A1437">
-        <v>786.7249953994359</v>
+        <v>681.012473445528</v>
       </c>
     </row>
     <row r="1438" spans="1:1">
       <c r="A1438">
-        <v>424.050995159572</v>
+        <v>371.2968513359747</v>
       </c>
     </row>
     <row r="1439" spans="1:1">
       <c r="A1439">
-        <v>273.6619758942024</v>
+        <v>276.903671034206</v>
       </c>
     </row>
     <row r="1440" spans="1:1">
       <c r="A1440">
-        <v>243.9064869034372</v>
+        <v>274.8676085297504</v>
       </c>
     </row>
     <row r="1441" spans="1:1">
       <c r="A1441">
-        <v>302.5592117129344</v>
+        <v>261.3916804413725</v>
       </c>
     </row>
     <row r="1442" spans="1:1">
       <c r="A1442">
-        <v>221.3610820167679</v>
+        <v>231.2837016544729</v>
       </c>
     </row>
     <row r="1443" spans="1:1">
       <c r="A1443">
-        <v>1132.176575579567</v>
+        <v>1182.67726986007</v>
       </c>
     </row>
     <row r="1444" spans="1:1">
       <c r="A1444">
-        <v>404.7162942579519</v>
+        <v>309.6032272756252</v>
       </c>
     </row>
     <row r="1445" spans="1:1">
       <c r="A1445">
-        <v>1358.584269406412</v>
+        <v>1052.339299482934</v>
       </c>
     </row>
     <row r="1446" spans="1:1">
       <c r="A1446">
-        <v>616.4662824777591</v>
+        <v>484.5657286017375</v>
       </c>
     </row>
     <row r="1447" spans="1:1">
       <c r="A1447">
-        <v>167.0074751943324</v>
+        <v>166.2190817860126</v>
       </c>
     </row>
     <row r="1448" spans="1:1">
       <c r="A1448">
-        <v>362.7867846659113</v>
+        <v>313.9838761711082</v>
       </c>
     </row>
     <row r="1449" spans="1:1">
       <c r="A1449">
-        <v>260.3020246933163</v>
+        <v>333.2750365844966</v>
       </c>
     </row>
     <row r="1450" spans="1:1">
       <c r="A1450">
-        <v>322.3220251433891</v>
+        <v>352.220716463585</v>
       </c>
     </row>
     <row r="1451" spans="1:1">
       <c r="A1451">
-        <v>588.4591742057947</v>
+        <v>822.8621199464857</v>
       </c>
     </row>
     <row r="1452" spans="1:1">
       <c r="A1452">
-        <v>211.0292287245458</v>
+        <v>272.2792284160709</v>
       </c>
     </row>
     <row r="1453" spans="1:1">
       <c r="A1453">
-        <v>1041.685643677327</v>
+        <v>1354.838991054649</v>
       </c>
     </row>
     <row r="1454" spans="1:1">
       <c r="A1454">
-        <v>603.3546910806597</v>
+        <v>402.7004275492233</v>
       </c>
     </row>
     <row r="1455" spans="1:1">
       <c r="A1455">
-        <v>711.313167176761</v>
+        <v>772.6506532362677</v>
       </c>
     </row>
     <row r="1456" spans="1:1">
       <c r="A1456">
-        <v>125.7626167854595</v>
+        <v>147.5946621050978</v>
       </c>
     </row>
     <row r="1457" spans="1:1">
       <c r="A1457">
-        <v>332.7395844227393</v>
+        <v>371.2802424581141</v>
       </c>
     </row>
     <row r="1458" spans="1:1">
       <c r="A1458">
-        <v>360.1983573035047</v>
+        <v>412.1777020183936</v>
       </c>
     </row>
     <row r="1459" spans="1:1">
       <c r="A1459">
-        <v>291.3115775096239</v>
+        <v>350.0757190910705</v>
       </c>
     </row>
     <row r="1460" spans="1:1">
       <c r="A1460">
-        <v>2000.135207751306</v>
+        <v>2198.153779502202</v>
       </c>
     </row>
     <row r="1461" spans="1:1">
       <c r="A1461">
-        <v>847.5787562659979</v>
+        <v>959.6333995899917</v>
       </c>
     </row>
     <row r="1462" spans="1:1">
       <c r="A1462">
-        <v>391.5252667993945</v>
+        <v>350.0684091289148</v>
       </c>
     </row>
     <row r="1463" spans="1:1">
       <c r="A1463">
-        <v>375.5889406291815</v>
+        <v>358.1174473408682</v>
       </c>
     </row>
     <row r="1464" spans="1:1">
       <c r="A1464">
-        <v>527.0721151697394</v>
+        <v>526.4152259707358</v>
       </c>
     </row>
     <row r="1465" spans="1:1">
       <c r="A1465">
-        <v>266.0539799503048</v>
+        <v>210.3439162904524</v>
       </c>
     </row>
     <row r="1466" spans="1:1">
       <c r="A1466">
-        <v>1310.931753077407</v>
+        <v>1416.87468159152</v>
       </c>
     </row>
     <row r="1467" spans="1:1">
       <c r="A1467">
-        <v>312.9554506335491</v>
+        <v>353.5542457285906</v>
       </c>
     </row>
     <row r="1468" spans="1:1">
       <c r="A1468">
-        <v>645.0874191129077</v>
+        <v>665.0964873051477</v>
       </c>
     </row>
     <row r="1469" spans="1:1">
       <c r="A1469">
-        <v>172.7558146570232</v>
+        <v>174.6961082563769</v>
       </c>
     </row>
     <row r="1470" spans="1:1">
       <c r="A1470">
-        <v>243.3108867236118</v>
+        <v>216.068905368904</v>
       </c>
     </row>
     <row r="1471" spans="1:1">
       <c r="A1471">
-        <v>262.2551670687722</v>
+        <v>342.7563198150736</v>
       </c>
     </row>
     <row r="1472" spans="1:1">
       <c r="A1472">
-        <v>448.7292943812743</v>
+        <v>591.8222810444882</v>
       </c>
     </row>
     <row r="1473" spans="1:1">
       <c r="A1473">
-        <v>434.8762896668188</v>
+        <v>600.2131446798917</v>
       </c>
     </row>
     <row r="1474" spans="1:1">
       <c r="A1474">
-        <v>769.5377251722638</v>
+        <v>714.5489604609388</v>
       </c>
     </row>
     <row r="1475" spans="1:1">
       <c r="A1475">
-        <v>102.1827826648907</v>
+        <v>114.7074023602757</v>
       </c>
     </row>
     <row r="1476" spans="1:1">
       <c r="A1476">
-        <v>378.0633959045711</v>
+        <v>435.7341419415575</v>
       </c>
     </row>
     <row r="1477" spans="1:1">
       <c r="A1477">
-        <v>247.881633819262</v>
+        <v>313.6012190537647</v>
       </c>
     </row>
     <row r="1478" spans="1:1">
       <c r="A1478">
-        <v>244.2125666852758</v>
+        <v>250.1057456891414</v>
       </c>
     </row>
     <row r="1479" spans="1:1">
       <c r="A1479">
-        <v>254.3694406440966</v>
+        <v>250.8771710056923</v>
       </c>
     </row>
     <row r="1480" spans="1:1">
       <c r="A1480">
-        <v>360.5049016110243</v>
+        <v>425.2563741323669</v>
       </c>
     </row>
     <row r="1481" spans="1:1">
       <c r="A1481">
-        <v>385.3864585939241</v>
+        <v>463.8556871534132</v>
       </c>
     </row>
     <row r="1482" spans="1:1">
       <c r="A1482">
-        <v>995.0647818334625</v>
+        <v>1213.377773462115</v>
       </c>
     </row>
     <row r="1483" spans="1:1">
       <c r="A1483">
-        <v>356.229576675642</v>
+        <v>365.921588851319</v>
       </c>
     </row>
     <row r="1484" spans="1:1">
       <c r="A1484">
-        <v>210.0669750015024</v>
+        <v>204.1106829203288</v>
       </c>
     </row>
     <row r="1485" spans="1:1">
       <c r="A1485">
-        <v>943.8857500427795</v>
+        <v>825.4572465033986</v>
       </c>
     </row>
     <row r="1486" spans="1:1">
       <c r="A1486">
-        <v>949.9230060306401</v>
+        <v>1060.56038125445</v>
       </c>
     </row>
     <row r="1487" spans="1:1">
       <c r="A1487">
-        <v>332.7981806520472</v>
+        <v>296.5838726067532</v>
       </c>
     </row>
     <row r="1488" spans="1:1">
       <c r="A1488">
-        <v>382.8987356988155</v>
+        <v>292.2102503029351</v>
       </c>
     </row>
     <row r="1489" spans="1:1">
       <c r="A1489">
-        <v>359.1975277381991</v>
+        <v>324.0709449870232</v>
       </c>
     </row>
     <row r="1490" spans="1:1">
       <c r="A1490">
-        <v>625.9975869820418</v>
+        <v>598.6041733902345</v>
       </c>
     </row>
     <row r="1491" spans="1:1">
       <c r="A1491">
-        <v>511.7799741550762</v>
+        <v>416.3518152507943</v>
       </c>
     </row>
     <row r="1492" spans="1:1">
       <c r="A1492">
-        <v>643.1081019326588</v>
+        <v>498.3443051187769</v>
       </c>
     </row>
     <row r="1493" spans="1:1">
       <c r="A1493">
-        <v>232.0383455307995</v>
+        <v>226.1438751993557</v>
       </c>
     </row>
     <row r="1494" spans="1:1">
       <c r="A1494">
-        <v>427.031602065053</v>
+        <v>407.5282551935813</v>
       </c>
     </row>
     <row r="1495" spans="1:1">
       <c r="A1495">
-        <v>590.2804324834707</v>
+        <v>528.481324382995</v>
       </c>
     </row>
     <row r="1496" spans="1:1">
       <c r="A1496">
-        <v>760.2632924989724</v>
+        <v>757.3406343389133</v>
       </c>
     </row>
     <row r="1497" spans="1:1">
       <c r="A1497">
-        <v>755.3208324882835</v>
+        <v>521.967135767725</v>
       </c>
     </row>
     <row r="1498" spans="1:1">
       <c r="A1498">
-        <v>237.6828090391348</v>
+        <v>270.4776510274339</v>
       </c>
     </row>
     <row r="1499" spans="1:1">
       <c r="A1499">
-        <v>2698.701341392263</v>
+        <v>2600.789926005592</v>
       </c>
     </row>
     <row r="1500" spans="1:1">
       <c r="A1500">
-        <v>263.4446069777775</v>
+        <v>300.7044566209195</v>
       </c>
     </row>
     <row r="1501" spans="1:1">
       <c r="A1501">
-        <v>357.8590751783179</v>
+        <v>380.8519677096004</v>
       </c>
     </row>
     <row r="1502" spans="1:1">
       <c r="A1502">
-        <v>452.8519965110568</v>
+        <v>514.3963991030195</v>
       </c>
     </row>
     <row r="1503" spans="1:1">
       <c r="A1503">
-        <v>251.4950489798535</v>
+        <v>228.124458483454</v>
       </c>
     </row>
     <row r="1504" spans="1:1">
       <c r="A1504">
-        <v>290.2348148956299</v>
+        <v>299.4201222199619</v>
       </c>
     </row>
     <row r="1505" spans="1:1">
       <c r="A1505">
-        <v>627.764072838204</v>
+        <v>606.7851333378934</v>
       </c>
     </row>
     <row r="1506" spans="1:1">
       <c r="A1506">
-        <v>598.7798931489938</v>
+        <v>724.5681831589819</v>
       </c>
     </row>
     <row r="1507" spans="1:1">
       <c r="A1507">
-        <v>352.8200613520516</v>
+        <v>370.6107216527243</v>
       </c>
     </row>
     <row r="1508" spans="1:1">
       <c r="A1508">
-        <v>350.4519980494912</v>
+        <v>305.4226044548148</v>
       </c>
     </row>
     <row r="1509" spans="1:1">
       <c r="A1509">
-        <v>618.3406715835845</v>
+        <v>554.9246659520117</v>
       </c>
     </row>
     <row r="1510" spans="1:1">
       <c r="A1510">
-        <v>280.2147141638345</v>
+        <v>357.9406691874818</v>
       </c>
     </row>
     <row r="1511" spans="1:1">
       <c r="A1511">
-        <v>476.5119235324416</v>
+        <v>594.9474743119622</v>
       </c>
     </row>
     <row r="1512" spans="1:1">
       <c r="A1512">
-        <v>1686.35968587938</v>
+        <v>1479.061580000011</v>
       </c>
     </row>
     <row r="1513" spans="1:1">
       <c r="A1513">
-        <v>368.2328107882711</v>
+        <v>380.0347942181525</v>
       </c>
     </row>
     <row r="1514" spans="1:1">
       <c r="A1514">
-        <v>165.1392069655075</v>
+        <v>173.642178682952</v>
       </c>
     </row>
     <row r="1515" spans="1:1">
       <c r="A1515">
-        <v>156.3287159879803</v>
+        <v>180.7772410283755</v>
       </c>
     </row>
     <row r="1516" spans="1:1">
       <c r="A1516">
-        <v>375.8354112401175</v>
+        <v>388.3865220824086</v>
       </c>
     </row>
     <row r="1517" spans="1:1">
       <c r="A1517">
-        <v>795.861054099691</v>
+        <v>736.3226593219603</v>
       </c>
     </row>
     <row r="1518" spans="1:1">
       <c r="A1518">
-        <v>262.3374877770034</v>
+        <v>280.4376285450268</v>
       </c>
     </row>
     <row r="1519" spans="1:1">
       <c r="A1519">
-        <v>399.6136403580505</v>
+        <v>360.4637581744798</v>
       </c>
     </row>
     <row r="1520" spans="1:1">
       <c r="A1520">
-        <v>514.9084954271867</v>
+        <v>419.2309460622776</v>
       </c>
     </row>
     <row r="1521" spans="1:1">
       <c r="A1521">
-        <v>363.9843023454302</v>
+        <v>362.5175005630153</v>
       </c>
     </row>
     <row r="1522" spans="1:1">
       <c r="A1522">
-        <v>159.8863302197967</v>
+        <v>164.2718695836688</v>
       </c>
     </row>
     <row r="1523" spans="1:1">
       <c r="A1523">
-        <v>996.5400098974746</v>
+        <v>954.4269251134041</v>
       </c>
     </row>
     <row r="1524" spans="1:1">
       <c r="A1524">
-        <v>366.4718112457399</v>
+        <v>375.99722736446</v>
       </c>
     </row>
     <row r="1525" spans="1:1">
       <c r="A1525">
-        <v>342.654238573529</v>
+        <v>286.2518857205795</v>
       </c>
     </row>
     <row r="1526" spans="1:1">
       <c r="A1526">
-        <v>579.6422525223312</v>
+        <v>597.4946984826893</v>
       </c>
     </row>
     <row r="1527" spans="1:1">
       <c r="A1527">
-        <v>450.3374871658918</v>
+        <v>382.1787046185436</v>
       </c>
     </row>
     <row r="1528" spans="1:1">
       <c r="A1528">
-        <v>457.4551322895322</v>
+        <v>385.9225329142177</v>
       </c>
     </row>
     <row r="1529" spans="1:1">
       <c r="A1529">
-        <v>731.3057386613549</v>
+        <v>774.9723390579524</v>
       </c>
     </row>
     <row r="1530" spans="1:1">
       <c r="A1530">
-        <v>758.1819471029594</v>
+        <v>799.627734458098</v>
       </c>
     </row>
     <row r="1531" spans="1:1">
       <c r="A1531">
-        <v>269.9254284759238</v>
+        <v>278.4369572755543</v>
       </c>
     </row>
     <row r="1532" spans="1:1">
       <c r="A1532">
-        <v>1069.176225139523</v>
+        <v>1335.189792528995</v>
       </c>
     </row>
     <row r="1533" spans="1:1">
       <c r="A1533">
-        <v>451.8094059280393</v>
+        <v>439.5536312027011</v>
       </c>
     </row>
     <row r="1534" spans="1:1">
       <c r="A1534">
-        <v>340.1781040367374</v>
+        <v>380.9131958596651</v>
       </c>
     </row>
     <row r="1535" spans="1:1">
       <c r="A1535">
-        <v>326.842952073488</v>
+        <v>390.7994511156178</v>
       </c>
     </row>
     <row r="1536" spans="1:1">
       <c r="A1536">
-        <v>548.4886894320847</v>
+        <v>498.2404791877887</v>
       </c>
     </row>
     <row r="1537" spans="1:1">
       <c r="A1537">
-        <v>633.625157002862</v>
+        <v>780.4393534736581</v>
       </c>
     </row>
     <row r="1538" spans="1:1">
       <c r="A1538">
-        <v>322.0340850502377</v>
+        <v>298.263357167027</v>
       </c>
     </row>
     <row r="1539" spans="1:1">
       <c r="A1539">
-        <v>723.2226592083681</v>
+        <v>543.7123317330688</v>
       </c>
     </row>
     <row r="1540" spans="1:1">
       <c r="A1540">
-        <v>736.7776278219236</v>
+        <v>663.6224700761667</v>
       </c>
     </row>
     <row r="1541" spans="1:1">
       <c r="A1541">
-        <v>590.3055512411579</v>
+        <v>543.6657561383425</v>
       </c>
     </row>
     <row r="1542" spans="1:1">
       <c r="A1542">
-        <v>480.3212971587836</v>
+        <v>471.6191470592177</v>
       </c>
     </row>
     <row r="1543" spans="1:1">
       <c r="A1543">
-        <v>470.0124898694742</v>
+        <v>493.9741275363144</v>
       </c>
     </row>
     <row r="1544" spans="1:1">
       <c r="A1544">
-        <v>259.3931003709909</v>
+        <v>284.4006517119292</v>
       </c>
     </row>
     <row r="1545" spans="1:1">
       <c r="A1545">
-        <v>352.5090567171825</v>
+        <v>364.3410473531027</v>
       </c>
     </row>
     <row r="1546" spans="1:1">
       <c r="A1546">
-        <v>753.0777240298138</v>
+        <v>728.3382324232101</v>
       </c>
     </row>
     <row r="1547" spans="1:1">
       <c r="A1547">
-        <v>533.8479705937921</v>
+        <v>585.8432195106227</v>
       </c>
     </row>
     <row r="1548" spans="1:1">
       <c r="A1548">
-        <v>191.647088044023</v>
+        <v>201.768176269196</v>
       </c>
     </row>
     <row r="1549" spans="1:1">
       <c r="A1549">
-        <v>938.9917771012202</v>
+        <v>843.9745582857007</v>
       </c>
     </row>
     <row r="1550" spans="1:1">
       <c r="A1550">
-        <v>340.4661148374265</v>
+        <v>317.93405842902</v>
       </c>
     </row>
     <row r="1551" spans="1:1">
       <c r="A1551">
-        <v>177.0341137268142</v>
+        <v>302.0598467804513</v>
       </c>
     </row>
     <row r="1552" spans="1:1">
       <c r="A1552">
-        <v>1873.067059624552</v>
+        <v>2340.884247532904</v>
       </c>
     </row>
     <row r="1553" spans="1:1">
       <c r="A1553">
-        <v>631.8159107415042</v>
+        <v>602.4446751866517</v>
       </c>
     </row>
     <row r="1554" spans="1:1">
       <c r="A1554">
-        <v>607.815599395862</v>
+        <v>570.7890337015078</v>
       </c>
     </row>
     <row r="1555" spans="1:1">
       <c r="A1555">
-        <v>290.6066711164702</v>
+        <v>321.512004807186</v>
       </c>
     </row>
     <row r="1556" spans="1:1">
       <c r="A1556">
-        <v>614.5065541031105</v>
+        <v>683.0296707654237</v>
       </c>
     </row>
     <row r="1557" spans="1:1">
       <c r="A1557">
-        <v>1311.248302243655</v>
+        <v>1302.799250362371</v>
       </c>
     </row>
     <row r="1558" spans="1:1">
       <c r="A1558">
-        <v>183.2173830782788</v>
+        <v>235.3303798059981</v>
       </c>
     </row>
     <row r="1559" spans="1:1">
       <c r="A1559">
-        <v>504.1473793220469</v>
+        <v>617.4098916162792</v>
       </c>
     </row>
     <row r="1560" spans="1:1">
       <c r="A1560">
-        <v>280.8232941615783</v>
+        <v>287.5465943091712</v>
       </c>
     </row>
     <row r="1561" spans="1:1">
       <c r="A1561">
-        <v>775.4540832624476</v>
+        <v>766.022904757554</v>
       </c>
     </row>
   </sheetData>
